--- a/csv/crime_master_cf.xlsx
+++ b/csv/crime_master_cf.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3110" uniqueCount="977">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3443" uniqueCount="1072">
   <si>
     <t>date</t>
   </si>
@@ -2580,9 +2580,6 @@
     <t>1008 CARRIAGE LN Cedar Falls Iowa</t>
   </si>
   <si>
-    <t>Sexual Assault/Burglary</t>
-  </si>
-  <si>
     <t>219 W 13TH ST</t>
   </si>
   <si>
@@ -2950,6 +2947,294 @@
   </si>
   <si>
     <t>19:09:00</t>
+  </si>
+  <si>
+    <t>1925 WALNUT ST</t>
+  </si>
+  <si>
+    <t>1925 WALNUT ST Cedar Falls Iowa</t>
+  </si>
+  <si>
+    <t>216 W 14TH ST</t>
+  </si>
+  <si>
+    <t>216 W 14TH ST Cedar Falls Iowa</t>
+  </si>
+  <si>
+    <t>2405 VICTORY DR</t>
+  </si>
+  <si>
+    <t>2405 VICTORY DR Cedar Falls Iowa</t>
+  </si>
+  <si>
+    <t>4411-18 ZIRCON LN</t>
+  </si>
+  <si>
+    <t>4411-18 ZIRCON LN Cedar Falls Iowa</t>
+  </si>
+  <si>
+    <t>2609-3E OLIVE ST</t>
+  </si>
+  <si>
+    <t>2609-3E OLIVE ST Cedar Falls Iowa</t>
+  </si>
+  <si>
+    <t>2503 BIG WOODS RD</t>
+  </si>
+  <si>
+    <t>2503 BIG WOODS RD Cedar Falls Iowa</t>
+  </si>
+  <si>
+    <t>27th St and Minnesota St</t>
+  </si>
+  <si>
+    <t>UNI Dome Lot</t>
+  </si>
+  <si>
+    <t>Panther Village lot</t>
+  </si>
+  <si>
+    <t>2320 COOLEY ST</t>
+  </si>
+  <si>
+    <t>2320 COOLEY ST Cedar Falls Iowa</t>
+  </si>
+  <si>
+    <t>508 W 3RD ST</t>
+  </si>
+  <si>
+    <t>508 W 3RD ST Cedar Falls Iowa</t>
+  </si>
+  <si>
+    <t>2210 LEVERSEE RD</t>
+  </si>
+  <si>
+    <t>2210 LEVERSEE RD Cedar Falls Iowa</t>
+  </si>
+  <si>
+    <t>821 HUNTER DR</t>
+  </si>
+  <si>
+    <t>821 HUNTER DR Cedar Falls Iowa</t>
+  </si>
+  <si>
+    <t>1115 W 23RD ST</t>
+  </si>
+  <si>
+    <t>1115 W 23RD ST Cedar Falls Iowa</t>
+  </si>
+  <si>
+    <t>2615-81 WALNUT ST</t>
+  </si>
+  <si>
+    <t>2615-81 WALNUT ST Cedar Falls Iowa</t>
+  </si>
+  <si>
+    <t>2609-7W OLIVE ST</t>
+  </si>
+  <si>
+    <t>2609-7W OLIVE ST Cedar Falls Iowa</t>
+  </si>
+  <si>
+    <t>HWY 58 and WATERLOO RD OVERPASS</t>
+  </si>
+  <si>
+    <t>HWY 58 and WATERLOO RD OVERPASS Cedar Falls Iowa</t>
+  </si>
+  <si>
+    <t>3703 BIG WOODS RD</t>
+  </si>
+  <si>
+    <t>3703 BIG WOODS RD Cedar Falls Iowa</t>
+  </si>
+  <si>
+    <t>2124-534 W 27TH ST</t>
+  </si>
+  <si>
+    <t>2124-534 W 27TH ST Cedar Falls Iowa</t>
+  </si>
+  <si>
+    <t>1123 BLUFF ST</t>
+  </si>
+  <si>
+    <t>1123 BLUFF ST Cedar Falls Iowa</t>
+  </si>
+  <si>
+    <t>4117-216 UNIVERSITY AV</t>
+  </si>
+  <si>
+    <t>4117-216 UNIVERSITY AV Cedar Falls Iowa</t>
+  </si>
+  <si>
+    <t>2305 CRESCENT DR</t>
+  </si>
+  <si>
+    <t>2305 CRESCENT DR Cedar Falls Iowa</t>
+  </si>
+  <si>
+    <t>1022 HIGBY DR</t>
+  </si>
+  <si>
+    <t>1022 HIGBY DR Cedar Falls Iowa</t>
+  </si>
+  <si>
+    <t>703 E DUNKERTON RD</t>
+  </si>
+  <si>
+    <t>703 E DUNKERTON RD Cedar Falls Iowa</t>
+  </si>
+  <si>
+    <t>9614-106C UNIVERSITY AV</t>
+  </si>
+  <si>
+    <t>9614-106C UNIVERSITY AV Cedar Falls Iowa</t>
+  </si>
+  <si>
+    <t>809 W 20TH ST</t>
+  </si>
+  <si>
+    <t>809 W 20TH ST Cedar Falls Iowa</t>
+  </si>
+  <si>
+    <t>2210 COLLEGE ST</t>
+  </si>
+  <si>
+    <t>2210 COLLEGE ST Cedar Falls Iowa</t>
+  </si>
+  <si>
+    <t>3219 TERRACE DR</t>
+  </si>
+  <si>
+    <t>3219 TERRACE DR Cedar Falls Iowa</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Hagemann Hall</t>
+  </si>
+  <si>
+    <t>1211 W 8TH ST</t>
+  </si>
+  <si>
+    <t>1211 W 8TH ST Cedar Falls Iowa</t>
+  </si>
+  <si>
+    <t>7805 ACE PL</t>
+  </si>
+  <si>
+    <t>7805 ACE PL Cedar Falls Iowa</t>
+  </si>
+  <si>
+    <t>525 E 18TH ST</t>
+  </si>
+  <si>
+    <t>525 E 18TH ST Cedar Falls Iowa</t>
+  </si>
+  <si>
+    <t>6605-42 SAPPHIRE RD</t>
+  </si>
+  <si>
+    <t>6605-42 SAPPHIRE RD Cedar Falls Iowa</t>
+  </si>
+  <si>
+    <t>Gilchrist Hall</t>
+  </si>
+  <si>
+    <t>6601-38 SAPPHIRE RD</t>
+  </si>
+  <si>
+    <t>6601-38 SAPPHIRE RD Cedar Falls Iowa</t>
+  </si>
+  <si>
+    <t>922 W 10TH ST</t>
+  </si>
+  <si>
+    <t>922 W 10TH ST Cedar Falls Iowa</t>
+  </si>
+  <si>
+    <t>700-729 W RIDGEWAY AV</t>
+  </si>
+  <si>
+    <t>700-729 W RIDGEWAY AV Cedar Falls Iowa</t>
+  </si>
+  <si>
+    <t>700 W RIDGEWAY AV</t>
+  </si>
+  <si>
+    <t>700 W RIDGEWAY AV Cedar Falls Iowa</t>
+  </si>
+  <si>
+    <t>700-725 W RIDGEWAY AV</t>
+  </si>
+  <si>
+    <t>700-725 W RIDGEWAY AV Cedar Falls Iowa</t>
+  </si>
+  <si>
+    <t>1703 WATERLOO RD</t>
+  </si>
+  <si>
+    <t>1703 WATERLOO RD Cedar Falls Iowa</t>
+  </si>
+  <si>
+    <t>2603-10 TERRACE DR</t>
+  </si>
+  <si>
+    <t>2603-10 TERRACE DR Cedar Falls Iowa</t>
+  </si>
+  <si>
+    <t>4117-215 UNIVERSITY AV</t>
+  </si>
+  <si>
+    <t>4117-215 UNIVERSITY AV Cedar Falls Iowa</t>
+  </si>
+  <si>
+    <t>2002 COLLEGE ST</t>
+  </si>
+  <si>
+    <t>2002 COLLEGE ST Cedar Falls Iowa</t>
+  </si>
+  <si>
+    <t>2117-94 COLLEGE ST</t>
+  </si>
+  <si>
+    <t>2117-94 COLLEGE ST Cedar Falls Iowa</t>
+  </si>
+  <si>
+    <t>5600 NORDIC DR</t>
+  </si>
+  <si>
+    <t>5600 NORDIC DR Cedar Falls Iowa</t>
+  </si>
+  <si>
+    <t>4410-133 UNIVERSITY AV</t>
+  </si>
+  <si>
+    <t>4410-133 UNIVERSITY AV Cedar Falls Iowa</t>
+  </si>
+  <si>
+    <t>519 W 1ST ST</t>
+  </si>
+  <si>
+    <t>519 W 1ST ST Cedar Falls Iowa</t>
+  </si>
+  <si>
+    <t>3705 BIG WOODS RD</t>
+  </si>
+  <si>
+    <t>3705 BIG WOODS RD Cedar Falls Iowa</t>
+  </si>
+  <si>
+    <t>700-531 W RIDGEWAY AV</t>
+  </si>
+  <si>
+    <t>700-531 W RIDGEWAY AV Cedar Falls Iowa</t>
+  </si>
+  <si>
+    <t>1421 W 18TH ST</t>
+  </si>
+  <si>
+    <t>1421 W 18TH ST Cedar Falls Iowa</t>
   </si>
 </sst>
 </file>
@@ -2960,7 +3245,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2989,6 +3274,11 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3067,7 +3357,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -3107,6 +3397,33 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="21" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3442,10 +3759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H767"/>
+  <dimension ref="A1:H850"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A622" workbookViewId="0">
-      <selection activeCell="C764" sqref="C764"/>
+    <sheetView tabSelected="1" topLeftCell="A814" workbookViewId="0">
+      <selection activeCell="E841" sqref="E841"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9246,7 +9563,7 @@
         <v>322</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>323</v>
@@ -12262,7 +12579,7 @@
         <v>449</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F339" s="2" t="s">
         <v>450</v>
@@ -13250,7 +13567,7 @@
         <v>444</v>
       </c>
       <c r="E377" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F377" s="2" t="s">
         <v>445</v>
@@ -14082,7 +14399,7 @@
         <v>529</v>
       </c>
       <c r="E409" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F409" s="2" t="s">
         <v>530</v>
@@ -20963,25 +21280,25 @@
         <v>40070</v>
       </c>
       <c r="B674" s="3">
-        <v>0.43124999999999997</v>
+        <v>0.34689814814814812</v>
       </c>
       <c r="C674" s="2" t="s">
-        <v>853</v>
+        <v>19</v>
       </c>
       <c r="D674" s="2" t="s">
-        <v>358</v>
+        <v>849</v>
       </c>
       <c r="E674" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="F674" s="2" t="s">
-        <v>60</v>
+        <v>850</v>
       </c>
       <c r="G674" s="2">
-        <v>42.508200000000002</v>
+        <v>42.513173000000002</v>
       </c>
       <c r="H674" s="2">
-        <v>-92.450855000000004</v>
+        <v>-92.440773899999996</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -20989,103 +21306,103 @@
         <v>40070</v>
       </c>
       <c r="B675" s="3">
-        <v>0.34689814814814812</v>
+        <v>0.83828703703703711</v>
       </c>
       <c r="C675" s="2" t="s">
-        <v>19</v>
+        <v>515</v>
       </c>
       <c r="D675" s="2" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="E675" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F675" s="2" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="G675" s="2">
-        <v>42.513173000000002</v>
+        <v>42.529381999999998</v>
       </c>
       <c r="H675" s="2">
-        <v>-92.440773899999996</v>
+        <v>-92.469389000000007</v>
       </c>
     </row>
     <row r="676" spans="1:8">
       <c r="A676" s="1">
-        <v>40070</v>
+        <v>40071</v>
       </c>
       <c r="B676" s="3">
-        <v>0.83828703703703711</v>
+        <v>0.64113425925925926</v>
       </c>
       <c r="C676" s="2" t="s">
-        <v>515</v>
+        <v>8</v>
       </c>
       <c r="D676" s="2" t="s">
-        <v>851</v>
+        <v>212</v>
       </c>
       <c r="E676" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F676" s="2" t="s">
-        <v>852</v>
+        <v>213</v>
       </c>
       <c r="G676" s="2">
-        <v>42.529381999999998</v>
+        <v>42.480448600000003</v>
       </c>
       <c r="H676" s="2">
-        <v>-92.469389000000007</v>
+        <v>-92.444347899999997</v>
       </c>
     </row>
     <row r="677" spans="1:8">
       <c r="A677" s="1">
-        <v>40071</v>
+        <v>40072</v>
       </c>
       <c r="B677" s="3">
-        <v>0.64113425925925926</v>
+        <v>0.69368055555555552</v>
       </c>
       <c r="C677" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D677" s="2" t="s">
-        <v>212</v>
+        <v>13</v>
       </c>
       <c r="E677" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F677" s="2" t="s">
-        <v>213</v>
+        <v>14</v>
       </c>
       <c r="G677" s="2">
-        <v>42.480448600000003</v>
+        <v>42.486379900000003</v>
       </c>
       <c r="H677" s="2">
-        <v>-92.444347899999997</v>
+        <v>-92.440025000000006</v>
       </c>
     </row>
     <row r="678" spans="1:8">
       <c r="A678" s="1">
-        <v>40072</v>
+        <v>40073</v>
       </c>
       <c r="B678" s="3">
-        <v>0.69368055555555552</v>
+        <v>5.8217592592592592E-3</v>
       </c>
       <c r="C678" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D678" s="2" t="s">
-        <v>13</v>
+        <v>857</v>
       </c>
       <c r="E678" s="2" t="s">
-        <v>10</v>
+        <v>249</v>
       </c>
       <c r="F678" s="2" t="s">
-        <v>14</v>
+        <v>858</v>
       </c>
       <c r="G678" s="2">
-        <v>42.486379900000003</v>
+        <v>42.5178248</v>
       </c>
       <c r="H678" s="2">
-        <v>-92.440025000000006</v>
+        <v>-92.458360499999998</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -21093,25 +21410,25 @@
         <v>40073</v>
       </c>
       <c r="B679" s="3">
-        <v>5.8217592592592592E-3</v>
+        <v>0.84974537037037035</v>
       </c>
       <c r="C679" s="2" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D679" s="2" t="s">
-        <v>858</v>
+        <v>632</v>
       </c>
       <c r="E679" s="2" t="s">
-        <v>249</v>
+        <v>10</v>
       </c>
       <c r="F679" s="2" t="s">
-        <v>859</v>
+        <v>633</v>
       </c>
       <c r="G679" s="2">
-        <v>42.5178248</v>
+        <v>42.510937699999999</v>
       </c>
       <c r="H679" s="2">
-        <v>-92.458360499999998</v>
+        <v>-92.429170299999996</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -21119,25 +21436,25 @@
         <v>40073</v>
       </c>
       <c r="B680" s="3">
-        <v>0.84974537037037035</v>
+        <v>0.47951388888888885</v>
       </c>
       <c r="C680" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D680" s="2" t="s">
-        <v>632</v>
+        <v>853</v>
       </c>
       <c r="E680" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F680" s="2" t="s">
-        <v>633</v>
+        <v>854</v>
       </c>
       <c r="G680" s="2">
-        <v>42.510937699999999</v>
+        <v>42.526957000000003</v>
       </c>
       <c r="H680" s="2">
-        <v>-92.429170299999996</v>
+        <v>-92.447654</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -21145,56 +21462,56 @@
         <v>40073</v>
       </c>
       <c r="B681" s="3">
-        <v>0.47951388888888885</v>
+        <v>0.72744212962962962</v>
       </c>
       <c r="C681" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D681" s="2" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E681" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F681" s="2" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="G681" s="2">
-        <v>42.526957000000003</v>
+        <v>42.531471799999998</v>
       </c>
       <c r="H681" s="2">
-        <v>-92.447654</v>
+        <v>-92.466435500000003</v>
       </c>
     </row>
     <row r="682" spans="1:8">
-      <c r="A682" s="1">
-        <v>40073</v>
-      </c>
-      <c r="B682" s="3">
-        <v>0.72744212962962962</v>
+      <c r="A682" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="B682" s="7" t="s">
+        <v>952</v>
       </c>
       <c r="C682" s="2" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="D682" s="2" t="s">
-        <v>856</v>
+        <v>275</v>
       </c>
       <c r="E682" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="F682" s="2" t="s">
-        <v>857</v>
+        <v>60</v>
       </c>
       <c r="G682" s="2">
-        <v>42.531471799999998</v>
+        <v>42.516264</v>
       </c>
       <c r="H682" s="2">
-        <v>-92.466435500000003</v>
+        <v>-92.461431000000005</v>
       </c>
     </row>
     <row r="683" spans="1:8">
       <c r="A683" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B683" s="7" t="s">
         <v>953</v>
@@ -21203,7 +21520,7 @@
         <v>57</v>
       </c>
       <c r="D683" s="2" t="s">
-        <v>275</v>
+        <v>954</v>
       </c>
       <c r="E683" s="2" t="s">
         <v>59</v>
@@ -21212,36 +21529,36 @@
         <v>60</v>
       </c>
       <c r="G683" s="2">
-        <v>42.516264</v>
+        <v>42.513429000000002</v>
       </c>
       <c r="H683" s="2">
-        <v>-92.461431000000005</v>
+        <v>-92.457864999999998</v>
       </c>
     </row>
     <row r="684" spans="1:8">
-      <c r="A684" s="1" t="s">
-        <v>952</v>
-      </c>
-      <c r="B684" s="7" t="s">
-        <v>954</v>
+      <c r="A684" s="1">
+        <v>40074</v>
+      </c>
+      <c r="B684" s="3">
+        <v>0.70276620370370368</v>
       </c>
       <c r="C684" s="2" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="D684" s="2" t="s">
-        <v>955</v>
+        <v>859</v>
       </c>
       <c r="E684" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="F684" s="2" t="s">
-        <v>60</v>
+        <v>860</v>
       </c>
       <c r="G684" s="2">
-        <v>42.513429000000002</v>
+        <v>42.527898</v>
       </c>
       <c r="H684" s="2">
-        <v>-92.457864999999998</v>
+        <v>-92.454492000000002</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -21249,25 +21566,25 @@
         <v>40074</v>
       </c>
       <c r="B685" s="3">
-        <v>0.70276620370370368</v>
+        <v>0.73354166666666665</v>
       </c>
       <c r="C685" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D685" s="2" t="s">
-        <v>860</v>
+        <v>30</v>
       </c>
       <c r="E685" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F685" s="2" t="s">
-        <v>861</v>
+        <v>31</v>
       </c>
       <c r="G685" s="2">
-        <v>42.527898</v>
+        <v>42.510937699999999</v>
       </c>
       <c r="H685" s="2">
-        <v>-92.454492000000002</v>
+        <v>-92.429170299999996</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -21275,10 +21592,10 @@
         <v>40074</v>
       </c>
       <c r="B686" s="3">
-        <v>0.73354166666666665</v>
+        <v>0.78473379629629625</v>
       </c>
       <c r="C686" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D686" s="2" t="s">
         <v>30</v>
@@ -21301,51 +21618,51 @@
         <v>40074</v>
       </c>
       <c r="B687" s="3">
-        <v>0.78473379629629625</v>
+        <v>9.9386574074074072E-2</v>
       </c>
       <c r="C687" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D687" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E687" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F687" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G687" s="2">
-        <v>42.510937699999999</v>
+        <v>42.518929999999997</v>
       </c>
       <c r="H687" s="2">
-        <v>-92.429170299999996</v>
+        <v>-92.456235000000007</v>
       </c>
     </row>
     <row r="688" spans="1:8">
       <c r="A688" s="1">
-        <v>40074</v>
+        <v>40075</v>
       </c>
       <c r="B688" s="3">
-        <v>9.9386574074074072E-2</v>
+        <v>0.73722222222222233</v>
       </c>
       <c r="C688" s="2" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="D688" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="E688" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F688" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G688" s="2">
-        <v>42.518929999999997</v>
+        <v>42.511099100000003</v>
       </c>
       <c r="H688" s="2">
-        <v>-92.456235000000007</v>
+        <v>-92.435960800000004</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -21353,25 +21670,25 @@
         <v>40075</v>
       </c>
       <c r="B689" s="3">
-        <v>0.73722222222222233</v>
+        <v>0.40127314814814818</v>
       </c>
       <c r="C689" s="2" t="s">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="D689" s="2" t="s">
-        <v>9</v>
+        <v>861</v>
       </c>
       <c r="E689" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F689" s="2" t="s">
-        <v>11</v>
+        <v>862</v>
       </c>
       <c r="G689" s="2">
-        <v>42.511099100000003</v>
+        <v>42.5366699</v>
       </c>
       <c r="H689" s="2">
-        <v>-92.435960800000004</v>
+        <v>-92.482458699999995</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -21379,77 +21696,77 @@
         <v>40075</v>
       </c>
       <c r="B690" s="3">
-        <v>0.40127314814814818</v>
+        <v>0.37116898148148153</v>
       </c>
       <c r="C690" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D690" s="2" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="E690" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F690" s="2" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="G690" s="2">
-        <v>42.5366699</v>
+        <v>42.534914399999998</v>
       </c>
       <c r="H690" s="2">
-        <v>-92.482458699999995</v>
+        <v>-92.475591100000003</v>
       </c>
     </row>
     <row r="691" spans="1:8">
-      <c r="A691" s="1">
-        <v>40075</v>
-      </c>
-      <c r="B691" s="3">
-        <v>0.37116898148148153</v>
+      <c r="A691" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B691" s="7" t="s">
+        <v>956</v>
       </c>
       <c r="C691" s="2" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="D691" s="2" t="s">
-        <v>864</v>
+        <v>957</v>
       </c>
       <c r="E691" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="F691" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G691" s="2">
+        <v>42.518101999999999</v>
+      </c>
+      <c r="H691" s="2">
+        <v>-92.459344000000002</v>
+      </c>
+    </row>
+    <row r="692" spans="1:8">
+      <c r="A692" s="1">
+        <v>40076</v>
+      </c>
+      <c r="B692" s="3">
+        <v>8.6249999999999993E-2</v>
+      </c>
+      <c r="C692" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D692" s="2" t="s">
         <v>865</v>
       </c>
-      <c r="G691" s="2">
-        <v>42.534914399999998</v>
-      </c>
-      <c r="H691" s="2">
-        <v>-92.475591100000003</v>
-      </c>
-    </row>
-    <row r="692" spans="1:8">
-      <c r="A692" s="1" t="s">
-        <v>956</v>
-      </c>
-      <c r="B692" s="7" t="s">
-        <v>957</v>
-      </c>
-      <c r="C692" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D692" s="2" t="s">
-        <v>958</v>
-      </c>
       <c r="E692" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="F692" s="2" t="s">
-        <v>60</v>
+        <v>866</v>
       </c>
       <c r="G692" s="2">
-        <v>42.518101999999999</v>
+        <v>42.532477</v>
       </c>
       <c r="H692" s="2">
-        <v>-92.459344000000002</v>
+        <v>-92.451192000000006</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -21457,25 +21774,25 @@
         <v>40076</v>
       </c>
       <c r="B693" s="3">
-        <v>8.6249999999999993E-2</v>
+        <v>7.5671296296296306E-2</v>
       </c>
       <c r="C693" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D693" s="2" t="s">
-        <v>866</v>
+        <v>100</v>
       </c>
       <c r="E693" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F693" s="2" t="s">
-        <v>867</v>
+        <v>101</v>
       </c>
       <c r="G693" s="2">
-        <v>42.532477</v>
+        <v>42.534866999999998</v>
       </c>
       <c r="H693" s="2">
-        <v>-92.451192000000006</v>
+        <v>-92.445914000000002</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -21483,25 +21800,25 @@
         <v>40076</v>
       </c>
       <c r="B694" s="3">
-        <v>7.5671296296296306E-2</v>
+        <v>0.60247685185185185</v>
       </c>
       <c r="C694" s="2" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="D694" s="2" t="s">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="E694" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F694" s="2" t="s">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="G694" s="2">
-        <v>42.534866999999998</v>
+        <v>42.536400999999998</v>
       </c>
       <c r="H694" s="2">
-        <v>-92.445914000000002</v>
+        <v>-92.447759000000005</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -21509,25 +21826,25 @@
         <v>40076</v>
       </c>
       <c r="B695" s="3">
-        <v>0.60247685185185185</v>
+        <v>0.13320601851851852</v>
       </c>
       <c r="C695" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D695" s="2" t="s">
-        <v>151</v>
+        <v>867</v>
       </c>
       <c r="E695" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F695" s="2" t="s">
-        <v>152</v>
+        <v>868</v>
       </c>
       <c r="G695" s="2">
-        <v>42.536400999999998</v>
+        <v>42.519747700000003</v>
       </c>
       <c r="H695" s="2">
-        <v>-92.447759000000005</v>
+        <v>-92.455763200000007</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -21535,25 +21852,25 @@
         <v>40076</v>
       </c>
       <c r="B696" s="3">
-        <v>0.13320601851851852</v>
+        <v>0.65307870370370369</v>
       </c>
       <c r="C696" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D696" s="2" t="s">
-        <v>868</v>
+        <v>316</v>
       </c>
       <c r="E696" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F696" s="2" t="s">
-        <v>869</v>
+        <v>317</v>
       </c>
       <c r="G696" s="2">
-        <v>42.519747700000003</v>
+        <v>42.548287500000001</v>
       </c>
       <c r="H696" s="2">
-        <v>-92.455763200000007</v>
+        <v>-92.4350989</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -21561,51 +21878,51 @@
         <v>40076</v>
       </c>
       <c r="B697" s="3">
-        <v>0.65307870370370369</v>
+        <v>0.71646990740740746</v>
       </c>
       <c r="C697" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D697" s="2" t="s">
-        <v>316</v>
+        <v>869</v>
       </c>
       <c r="E697" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F697" s="2" t="s">
-        <v>317</v>
+        <v>870</v>
       </c>
       <c r="G697" s="2">
-        <v>42.548287500000001</v>
+        <v>42.521616000000002</v>
       </c>
       <c r="H697" s="2">
-        <v>-92.4350989</v>
+        <v>-92.457507000000007</v>
       </c>
     </row>
     <row r="698" spans="1:8">
       <c r="A698" s="1">
-        <v>40076</v>
+        <v>40077</v>
       </c>
       <c r="B698" s="3">
-        <v>0.71646990740740746</v>
+        <v>0.58157407407407413</v>
       </c>
       <c r="C698" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D698" s="2" t="s">
-        <v>870</v>
+        <v>13</v>
       </c>
       <c r="E698" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F698" s="2" t="s">
-        <v>871</v>
+        <v>14</v>
       </c>
       <c r="G698" s="2">
-        <v>42.521616000000002</v>
+        <v>42.486379900000003</v>
       </c>
       <c r="H698" s="2">
-        <v>-92.457507000000007</v>
+        <v>-92.440025000000006</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -21613,7 +21930,7 @@
         <v>40077</v>
       </c>
       <c r="B699" s="3">
-        <v>0.58157407407407413</v>
+        <v>0.80138888888888893</v>
       </c>
       <c r="C699" s="2" t="s">
         <v>8</v>
@@ -21639,25 +21956,25 @@
         <v>40077</v>
       </c>
       <c r="B700" s="3">
-        <v>0.80138888888888893</v>
+        <v>0.43311342592592594</v>
       </c>
       <c r="C700" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D700" s="2" t="s">
-        <v>13</v>
+        <v>871</v>
       </c>
       <c r="E700" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F700" s="2" t="s">
-        <v>14</v>
+        <v>872</v>
       </c>
       <c r="G700" s="2">
-        <v>42.486379900000003</v>
+        <v>42.504835</v>
       </c>
       <c r="H700" s="2">
-        <v>-92.440025000000006</v>
+        <v>-92.407375000000002</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -21665,51 +21982,51 @@
         <v>40077</v>
       </c>
       <c r="B701" s="3">
-        <v>0.43311342592592594</v>
+        <v>0.60840277777777774</v>
       </c>
       <c r="C701" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D701" s="2" t="s">
-        <v>872</v>
+        <v>566</v>
       </c>
       <c r="E701" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F701" s="2" t="s">
-        <v>873</v>
+        <v>567</v>
       </c>
       <c r="G701" s="2">
-        <v>42.504835</v>
+        <v>42.473410000000001</v>
       </c>
       <c r="H701" s="2">
-        <v>-92.407375000000002</v>
+        <v>-92.464421999999999</v>
       </c>
     </row>
     <row r="702" spans="1:8">
       <c r="A702" s="1">
-        <v>40077</v>
+        <v>40078</v>
       </c>
       <c r="B702" s="3">
-        <v>0.60840277777777774</v>
+        <v>0.75089120370370377</v>
       </c>
       <c r="C702" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D702" s="2" t="s">
-        <v>566</v>
+        <v>442</v>
       </c>
       <c r="E702" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F702" s="2" t="s">
-        <v>567</v>
+        <v>443</v>
       </c>
       <c r="G702" s="2">
-        <v>42.473410000000001</v>
+        <v>42.514465000000001</v>
       </c>
       <c r="H702" s="2">
-        <v>-92.464421999999999</v>
+        <v>-92.438794000000001</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -21717,25 +22034,25 @@
         <v>40078</v>
       </c>
       <c r="B703" s="3">
-        <v>0.75089120370370377</v>
+        <v>0.73478009259259258</v>
       </c>
       <c r="C703" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D703" s="2" t="s">
-        <v>442</v>
+        <v>873</v>
       </c>
       <c r="E703" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F703" s="2" t="s">
-        <v>443</v>
+        <v>874</v>
       </c>
       <c r="G703" s="2">
-        <v>42.514465000000001</v>
+        <v>42.496828999999998</v>
       </c>
       <c r="H703" s="2">
-        <v>-92.438794000000001</v>
+        <v>-92.418339000000003</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -21743,51 +22060,51 @@
         <v>40078</v>
       </c>
       <c r="B704" s="3">
-        <v>0.73478009259259258</v>
+        <v>0.78853009259259255</v>
       </c>
       <c r="C704" s="2" t="s">
-        <v>8</v>
+        <v>515</v>
       </c>
       <c r="D704" s="2" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="E704" s="2" t="s">
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="F704" s="2" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="G704" s="2">
-        <v>42.496828999999998</v>
+        <v>42.513037400000002</v>
       </c>
       <c r="H704" s="2">
-        <v>-92.418339000000003</v>
+        <v>-92.412407299999998</v>
       </c>
     </row>
     <row r="705" spans="1:8">
       <c r="A705" s="1">
-        <v>40078</v>
+        <v>40079</v>
       </c>
       <c r="B705" s="3">
-        <v>0.78853009259259255</v>
+        <v>0.74273148148148149</v>
       </c>
       <c r="C705" s="2" t="s">
-        <v>515</v>
+        <v>8</v>
       </c>
       <c r="D705" s="2" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="E705" s="2" t="s">
-        <v>184</v>
+        <v>10</v>
       </c>
       <c r="F705" s="2" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G705" s="2">
-        <v>42.513037400000002</v>
+        <v>42.534128500000001</v>
       </c>
       <c r="H705" s="2">
-        <v>-92.412407299999998</v>
+        <v>-92.455965300000003</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -21795,51 +22112,51 @@
         <v>40079</v>
       </c>
       <c r="B706" s="3">
-        <v>0.74273148148148149</v>
+        <v>6.0023148148148152E-2</v>
       </c>
       <c r="C706" s="2" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="D706" s="2" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="E706" s="2" t="s">
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="F706" s="2" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="G706" s="2">
-        <v>42.534128500000001</v>
+        <v>42.531471799999998</v>
       </c>
       <c r="H706" s="2">
-        <v>-92.455965300000003</v>
+        <v>-92.466435500000003</v>
       </c>
     </row>
     <row r="707" spans="1:8">
       <c r="A707" s="1">
-        <v>40079</v>
+        <v>40080</v>
       </c>
       <c r="B707" s="3">
-        <v>6.0023148148148152E-2</v>
+        <v>0.58800925925925929</v>
       </c>
       <c r="C707" s="2" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D707" s="2" t="s">
-        <v>880</v>
+        <v>212</v>
       </c>
       <c r="E707" s="2" t="s">
-        <v>184</v>
+        <v>10</v>
       </c>
       <c r="F707" s="2" t="s">
-        <v>881</v>
+        <v>213</v>
       </c>
       <c r="G707" s="2">
-        <v>42.531471799999998</v>
+        <v>42.480448600000003</v>
       </c>
       <c r="H707" s="2">
-        <v>-92.466435500000003</v>
+        <v>-92.444347899999997</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -21847,51 +22164,51 @@
         <v>40080</v>
       </c>
       <c r="B708" s="3">
-        <v>0.58800925925925929</v>
+        <v>0.8096875</v>
       </c>
       <c r="C708" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D708" s="2" t="s">
-        <v>212</v>
+        <v>881</v>
       </c>
       <c r="E708" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F708" s="2" t="s">
-        <v>213</v>
+        <v>882</v>
       </c>
       <c r="G708" s="2">
-        <v>42.480448600000003</v>
+        <v>42.562272900000004</v>
       </c>
       <c r="H708" s="2">
-        <v>-92.444347899999997</v>
+        <v>-92.4559505</v>
       </c>
     </row>
     <row r="709" spans="1:8">
       <c r="A709" s="1">
-        <v>40080</v>
+        <v>40081</v>
       </c>
       <c r="B709" s="3">
-        <v>0.8096875</v>
+        <v>0.86108796296296297</v>
       </c>
       <c r="C709" s="2" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="D709" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="E709" s="2" t="s">
-        <v>10</v>
+        <v>249</v>
       </c>
       <c r="F709" s="2" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="G709" s="2">
-        <v>42.562272900000004</v>
+        <v>42.5379237</v>
       </c>
       <c r="H709" s="2">
-        <v>-92.4559505</v>
+        <v>-92.445526400000006</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -21899,25 +22216,25 @@
         <v>40081</v>
       </c>
       <c r="B710" s="3">
-        <v>0.86108796296296297</v>
+        <v>0.73597222222222225</v>
       </c>
       <c r="C710" s="2" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D710" s="2" t="s">
-        <v>884</v>
+        <v>9</v>
       </c>
       <c r="E710" s="2" t="s">
-        <v>249</v>
+        <v>10</v>
       </c>
       <c r="F710" s="2" t="s">
-        <v>885</v>
+        <v>11</v>
       </c>
       <c r="G710" s="2">
-        <v>42.5379237</v>
+        <v>42.511099100000003</v>
       </c>
       <c r="H710" s="2">
-        <v>-92.445526400000006</v>
+        <v>-92.435960800000004</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -21925,51 +22242,51 @@
         <v>40081</v>
       </c>
       <c r="B711" s="3">
-        <v>0.73597222222222225</v>
+        <v>0.36728009259259259</v>
       </c>
       <c r="C711" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D711" s="2" t="s">
-        <v>9</v>
+        <v>442</v>
       </c>
       <c r="E711" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F711" s="2" t="s">
-        <v>11</v>
+        <v>443</v>
       </c>
       <c r="G711" s="2">
-        <v>42.511099100000003</v>
+        <v>42.514465000000001</v>
       </c>
       <c r="H711" s="2">
-        <v>-92.435960800000004</v>
+        <v>-92.438794000000001</v>
       </c>
     </row>
     <row r="712" spans="1:8">
       <c r="A712" s="1">
-        <v>40081</v>
+        <v>40082</v>
       </c>
       <c r="B712" s="3">
-        <v>0.36728009259259259</v>
+        <v>0.10739583333333334</v>
       </c>
       <c r="C712" s="2" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="D712" s="2" t="s">
-        <v>442</v>
+        <v>893</v>
       </c>
       <c r="E712" s="2" t="s">
-        <v>10</v>
+        <v>905</v>
       </c>
       <c r="F712" s="2" t="s">
-        <v>443</v>
+        <v>894</v>
       </c>
       <c r="G712" s="2">
-        <v>42.514465000000001</v>
+        <v>42.519240000000003</v>
       </c>
       <c r="H712" s="2">
-        <v>-92.438794000000001</v>
+        <v>-92.428169999999994</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -21977,25 +22294,25 @@
         <v>40082</v>
       </c>
       <c r="B713" s="3">
-        <v>0.10739583333333334</v>
+        <v>0.84122685185185186</v>
       </c>
       <c r="C713" s="2" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="D713" s="2" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="E713" s="2" t="s">
-        <v>906</v>
+        <v>249</v>
       </c>
       <c r="F713" s="2" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="G713" s="2">
-        <v>42.519240000000003</v>
+        <v>42.542831999999997</v>
       </c>
       <c r="H713" s="2">
-        <v>-92.428169999999994</v>
+        <v>-92.417773999999994</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -22003,25 +22320,25 @@
         <v>40082</v>
       </c>
       <c r="B714" s="3">
-        <v>0.84122685185185186</v>
+        <v>0.55700231481481477</v>
       </c>
       <c r="C714" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D714" s="2" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="E714" s="2" t="s">
-        <v>249</v>
+        <v>10</v>
       </c>
       <c r="F714" s="2" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="G714" s="2">
-        <v>42.542831999999997</v>
+        <v>42.5358266</v>
       </c>
       <c r="H714" s="2">
-        <v>-92.417773999999994</v>
+        <v>-92.454197699999995</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -22029,25 +22346,25 @@
         <v>40082</v>
       </c>
       <c r="B715" s="3">
-        <v>0.55700231481481477</v>
+        <v>0.49952546296296302</v>
       </c>
       <c r="C715" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D715" s="2" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="E715" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F715" s="2" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="G715" s="2">
-        <v>42.5358266</v>
+        <v>42.535815700000001</v>
       </c>
       <c r="H715" s="2">
-        <v>-92.454197699999995</v>
+        <v>-92.453895200000005</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -22055,25 +22372,25 @@
         <v>40082</v>
       </c>
       <c r="B716" s="3">
-        <v>0.49952546296296302</v>
+        <v>0.57328703703703698</v>
       </c>
       <c r="C716" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D716" s="2" t="s">
-        <v>888</v>
+        <v>185</v>
       </c>
       <c r="E716" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F716" s="2" t="s">
-        <v>889</v>
+        <v>186</v>
       </c>
       <c r="G716" s="2">
-        <v>42.535815700000001</v>
+        <v>42.535513999999999</v>
       </c>
       <c r="H716" s="2">
-        <v>-92.453895200000005</v>
+        <v>-92.445909999999998</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -22081,25 +22398,25 @@
         <v>40082</v>
       </c>
       <c r="B717" s="3">
-        <v>0.57328703703703698</v>
+        <v>0.78618055555555555</v>
       </c>
       <c r="C717" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D717" s="2" t="s">
-        <v>185</v>
+        <v>889</v>
       </c>
       <c r="E717" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F717" s="2" t="s">
-        <v>186</v>
+        <v>890</v>
       </c>
       <c r="G717" s="2">
-        <v>42.535513999999999</v>
+        <v>42.512148000000003</v>
       </c>
       <c r="H717" s="2">
-        <v>-92.445909999999998</v>
+        <v>-92.419189000000003</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -22107,129 +22424,129 @@
         <v>40082</v>
       </c>
       <c r="B718" s="3">
-        <v>0.78618055555555555</v>
+        <v>0.741724537037037</v>
       </c>
       <c r="C718" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D718" s="2" t="s">
-        <v>890</v>
+        <v>812</v>
       </c>
       <c r="E718" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F718" s="2" t="s">
-        <v>891</v>
+        <v>813</v>
       </c>
       <c r="G718" s="2">
-        <v>42.512148000000003</v>
+        <v>42.502908499999997</v>
       </c>
       <c r="H718" s="2">
-        <v>-92.419189000000003</v>
+        <v>-92.409519399999994</v>
       </c>
     </row>
     <row r="719" spans="1:8">
-      <c r="A719" s="1">
-        <v>40082</v>
-      </c>
-      <c r="B719" s="3">
-        <v>0.741724537037037</v>
+      <c r="A719" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="B719" s="7" t="s">
+        <v>959</v>
       </c>
       <c r="C719" s="2" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="D719" s="2" t="s">
-        <v>812</v>
+        <v>791</v>
       </c>
       <c r="E719" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="F719" s="2" t="s">
-        <v>813</v>
+        <v>60</v>
       </c>
       <c r="G719" s="2">
-        <v>42.502908499999997</v>
+        <v>42.515479999999997</v>
       </c>
       <c r="H719" s="2">
-        <v>-92.409519399999994</v>
-      </c>
-    </row>
-    <row r="720" spans="1:8">
-      <c r="A720" s="1" t="s">
-        <v>959</v>
-      </c>
-      <c r="B720" s="7" t="s">
-        <v>960</v>
+        <v>-92.457397</v>
+      </c>
+    </row>
+    <row r="720" spans="1:8" ht="16" thickBot="1">
+      <c r="A720" s="1">
+        <v>40083</v>
+      </c>
+      <c r="B720" s="3">
+        <v>0.43204861111111109</v>
       </c>
       <c r="C720" s="2" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="D720" s="2" t="s">
-        <v>791</v>
+        <v>895</v>
       </c>
       <c r="E720" s="2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="F720" s="2" t="s">
-        <v>60</v>
+        <v>896</v>
       </c>
       <c r="G720" s="2">
-        <v>42.515479999999997</v>
+        <v>42.505394000000003</v>
       </c>
       <c r="H720" s="2">
-        <v>-92.457397</v>
+        <v>-92.407728000000006</v>
       </c>
     </row>
     <row r="721" spans="1:8" ht="16" thickBot="1">
-      <c r="A721" s="1">
-        <v>40083</v>
-      </c>
-      <c r="B721" s="3">
-        <v>0.43204861111111109</v>
-      </c>
-      <c r="C721" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D721" s="2" t="s">
-        <v>896</v>
-      </c>
-      <c r="E721" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F721" s="2" t="s">
+      <c r="A721" s="8">
+        <v>40084</v>
+      </c>
+      <c r="B721" s="9">
+        <v>1.3900462962962962E-2</v>
+      </c>
+      <c r="C721" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D721" s="10" t="s">
         <v>897</v>
       </c>
-      <c r="G721" s="2">
-        <v>42.505394000000003</v>
-      </c>
-      <c r="H721" s="2">
-        <v>-92.407728000000006</v>
+      <c r="E721" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F721" s="10" t="s">
+        <v>898</v>
+      </c>
+      <c r="G721" s="10">
+        <v>42.535026000000002</v>
+      </c>
+      <c r="H721" s="10">
+        <v>-92.444214200000005</v>
       </c>
     </row>
     <row r="722" spans="1:8" ht="16" thickBot="1">
-      <c r="A722" s="8">
+      <c r="A722" s="11">
         <v>40084</v>
       </c>
-      <c r="B722" s="9">
-        <v>1.3900462962962962E-2</v>
-      </c>
-      <c r="C722" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D722" s="10" t="s">
-        <v>898</v>
-      </c>
-      <c r="E722" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F722" s="10" t="s">
+      <c r="B722" s="12">
+        <v>0.51052083333333331</v>
+      </c>
+      <c r="C722" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D722" s="13" t="s">
         <v>899</v>
       </c>
-      <c r="G722" s="10">
-        <v>42.535026000000002</v>
-      </c>
-      <c r="H722" s="10">
-        <v>-92.444214200000005</v>
+      <c r="E722" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F722" s="13" t="s">
+        <v>900</v>
+      </c>
+      <c r="G722" s="13">
+        <v>42.512168000000003</v>
+      </c>
+      <c r="H722" s="13">
+        <v>-92.4171269</v>
       </c>
     </row>
     <row r="723" spans="1:8" ht="16" thickBot="1">
@@ -22237,77 +22554,77 @@
         <v>40084</v>
       </c>
       <c r="B723" s="12">
-        <v>0.51052083333333331</v>
+        <v>0.49078703703703702</v>
       </c>
       <c r="C723" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D723" s="13" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="E723" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F723" s="13" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="G723" s="13">
-        <v>42.512168000000003</v>
+        <v>42.542831999999997</v>
       </c>
       <c r="H723" s="13">
-        <v>-92.4171269</v>
+        <v>-92.417773999999994</v>
       </c>
     </row>
     <row r="724" spans="1:8" ht="16" thickBot="1">
       <c r="A724" s="11">
-        <v>40084</v>
+        <v>40085</v>
       </c>
       <c r="B724" s="12">
-        <v>0.49078703703703702</v>
+        <v>3.1574074074074074E-2</v>
       </c>
       <c r="C724" s="13" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D724" s="13" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="E724" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F724" s="13" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="G724" s="13">
-        <v>42.542831999999997</v>
+        <v>42.509291900000001</v>
       </c>
       <c r="H724" s="13">
-        <v>-92.417773999999994</v>
+        <v>-92.431697499999999</v>
       </c>
     </row>
     <row r="725" spans="1:8" ht="16" thickBot="1">
-      <c r="A725" s="11">
+      <c r="A725" s="21">
         <v>40085</v>
       </c>
-      <c r="B725" s="12">
-        <v>3.1574074074074074E-2</v>
-      </c>
-      <c r="C725" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D725" s="13" t="s">
-        <v>904</v>
-      </c>
-      <c r="E725" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F725" s="13" t="s">
-        <v>905</v>
-      </c>
-      <c r="G725" s="13">
-        <v>42.509291900000001</v>
-      </c>
-      <c r="H725" s="13">
-        <v>-92.431697499999999</v>
+      <c r="B725" s="14">
+        <v>0.34862268518518519</v>
+      </c>
+      <c r="C725" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D725" s="15" t="s">
+        <v>906</v>
+      </c>
+      <c r="E725" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F725" s="15" t="s">
+        <v>907</v>
+      </c>
+      <c r="G725" s="16">
+        <v>42.513781999999999</v>
+      </c>
+      <c r="H725" s="16">
+        <v>-92.429433000000003</v>
       </c>
     </row>
     <row r="726" spans="1:8" ht="16" thickBot="1">
@@ -22315,25 +22632,25 @@
         <v>40085</v>
       </c>
       <c r="B726" s="14">
-        <v>0.34862268518518519</v>
+        <v>0.37436342592592592</v>
       </c>
       <c r="C726" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D726" s="15" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="E726" s="15" t="s">
         <v>10</v>
       </c>
       <c r="F726" s="15" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="G726" s="16">
-        <v>42.513781999999999</v>
+        <v>42.518555900000003</v>
       </c>
       <c r="H726" s="16">
-        <v>-92.429433000000003</v>
+        <v>-92.458138000000005</v>
       </c>
     </row>
     <row r="727" spans="1:8" ht="16" thickBot="1">
@@ -22341,19 +22658,19 @@
         <v>40085</v>
       </c>
       <c r="B727" s="14">
-        <v>0.37436342592592592</v>
+        <v>0.55986111111111114</v>
       </c>
       <c r="C727" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D727" s="15" t="s">
+        <v>908</v>
+      </c>
+      <c r="E727" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F727" s="15" t="s">
         <v>909</v>
-      </c>
-      <c r="E727" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F727" s="15" t="s">
-        <v>910</v>
       </c>
       <c r="G727" s="16">
         <v>42.518555900000003</v>
@@ -22367,25 +22684,25 @@
         <v>40085</v>
       </c>
       <c r="B728" s="14">
-        <v>0.55986111111111114</v>
+        <v>0.66233796296296299</v>
       </c>
       <c r="C728" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D728" s="15" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E728" s="15" t="s">
         <v>10</v>
       </c>
       <c r="F728" s="15" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="G728" s="16">
-        <v>42.518555900000003</v>
+        <v>42.514479000000001</v>
       </c>
       <c r="H728" s="16">
-        <v>-92.458138000000005</v>
+        <v>-92.453770000000006</v>
       </c>
     </row>
     <row r="729" spans="1:8" ht="16" thickBot="1">
@@ -22393,25 +22710,25 @@
         <v>40085</v>
       </c>
       <c r="B729" s="14">
-        <v>0.66233796296296299</v>
+        <v>0.66744212962962957</v>
       </c>
       <c r="C729" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D729" s="15" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="E729" s="15" t="s">
         <v>10</v>
       </c>
       <c r="F729" s="15" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="G729" s="16">
-        <v>42.514479000000001</v>
+        <v>42.518476999999997</v>
       </c>
       <c r="H729" s="16">
-        <v>-92.453770000000006</v>
+        <v>-92.455994700000005</v>
       </c>
     </row>
     <row r="730" spans="1:8" ht="16" thickBot="1">
@@ -22419,25 +22736,25 @@
         <v>40085</v>
       </c>
       <c r="B730" s="14">
-        <v>0.66744212962962957</v>
+        <v>0.70390046296296294</v>
       </c>
       <c r="C730" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D730" s="15" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="E730" s="15" t="s">
         <v>10</v>
       </c>
       <c r="F730" s="15" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="G730" s="16">
-        <v>42.518476999999997</v>
+        <v>42.5085908</v>
       </c>
       <c r="H730" s="16">
-        <v>-92.455994700000005</v>
+        <v>-92.413638300000002</v>
       </c>
     </row>
     <row r="731" spans="1:8" ht="16" thickBot="1">
@@ -22445,25 +22762,25 @@
         <v>40085</v>
       </c>
       <c r="B731" s="14">
-        <v>0.70390046296296294</v>
+        <v>0.71706018518518511</v>
       </c>
       <c r="C731" s="15" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D731" s="15" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="E731" s="15" t="s">
         <v>10</v>
       </c>
       <c r="F731" s="15" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="G731" s="16">
-        <v>42.5085908</v>
+        <v>42.515498999999998</v>
       </c>
       <c r="H731" s="16">
-        <v>-92.413638300000002</v>
+        <v>-92.454318999999998</v>
       </c>
     </row>
     <row r="732" spans="1:8" ht="16" thickBot="1">
@@ -22471,77 +22788,77 @@
         <v>40085</v>
       </c>
       <c r="B732" s="14">
-        <v>0.71706018518518511</v>
+        <v>0.73556712962962967</v>
       </c>
       <c r="C732" s="15" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D732" s="15" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="E732" s="15" t="s">
         <v>10</v>
       </c>
       <c r="F732" s="15" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="G732" s="16">
-        <v>42.515498999999998</v>
+        <v>42.518555900000003</v>
       </c>
       <c r="H732" s="16">
-        <v>-92.454318999999998</v>
+        <v>-92.458138000000005</v>
       </c>
     </row>
     <row r="733" spans="1:8" ht="16" thickBot="1">
-      <c r="A733" s="21">
-        <v>40085</v>
-      </c>
-      <c r="B733" s="14">
-        <v>0.73556712962962967</v>
-      </c>
-      <c r="C733" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D733" s="15" t="s">
-        <v>919</v>
-      </c>
-      <c r="E733" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F733" s="15" t="s">
-        <v>920</v>
-      </c>
-      <c r="G733" s="16">
-        <v>42.518555900000003</v>
-      </c>
-      <c r="H733" s="16">
-        <v>-92.458138000000005</v>
+      <c r="A733" s="11" t="s">
+        <v>960</v>
+      </c>
+      <c r="B733" s="17" t="s">
+        <v>961</v>
+      </c>
+      <c r="C733" s="13" t="s">
+        <v>962</v>
+      </c>
+      <c r="D733" s="13" t="s">
+        <v>963</v>
+      </c>
+      <c r="E733" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F733" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G733" s="13">
+        <v>42.519722000000002</v>
+      </c>
+      <c r="H733" s="13">
+        <v>-92.460933999999995</v>
       </c>
     </row>
     <row r="734" spans="1:8" ht="16" thickBot="1">
-      <c r="A734" s="11" t="s">
-        <v>961</v>
-      </c>
-      <c r="B734" s="17" t="s">
-        <v>962</v>
-      </c>
-      <c r="C734" s="13" t="s">
-        <v>963</v>
-      </c>
-      <c r="D734" s="13" t="s">
-        <v>964</v>
-      </c>
-      <c r="E734" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F734" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G734" s="13">
-        <v>42.519722000000002</v>
-      </c>
-      <c r="H734" s="13">
-        <v>-92.460933999999995</v>
+      <c r="A734" s="21">
+        <v>40086</v>
+      </c>
+      <c r="B734" s="14">
+        <v>0.43640046296296298</v>
+      </c>
+      <c r="C734" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D734" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="E734" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F734" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="G734" s="16">
+        <v>42.504835</v>
+      </c>
+      <c r="H734" s="16">
+        <v>-92.407375000000002</v>
       </c>
     </row>
     <row r="735" spans="1:8" ht="16" thickBot="1">
@@ -22549,25 +22866,25 @@
         <v>40086</v>
       </c>
       <c r="B735" s="14">
-        <v>0.43640046296296298</v>
+        <v>0.48135416666666669</v>
       </c>
       <c r="C735" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D735" s="15" t="s">
-        <v>199</v>
+        <v>920</v>
       </c>
       <c r="E735" s="15" t="s">
         <v>10</v>
       </c>
       <c r="F735" s="15" t="s">
-        <v>200</v>
+        <v>921</v>
       </c>
       <c r="G735" s="16">
-        <v>42.504835</v>
+        <v>42.519026500000002</v>
       </c>
       <c r="H735" s="16">
-        <v>-92.407375000000002</v>
+        <v>-92.455806199999998</v>
       </c>
     </row>
     <row r="736" spans="1:8" ht="16" thickBot="1">
@@ -22575,25 +22892,25 @@
         <v>40086</v>
       </c>
       <c r="B736" s="14">
-        <v>0.48135416666666669</v>
+        <v>0.61766203703703704</v>
       </c>
       <c r="C736" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D736" s="15" t="s">
-        <v>921</v>
+        <v>13</v>
       </c>
       <c r="E736" s="15" t="s">
         <v>10</v>
       </c>
       <c r="F736" s="15" t="s">
-        <v>922</v>
+        <v>14</v>
       </c>
       <c r="G736" s="16">
-        <v>42.519026500000002</v>
+        <v>42.486379900000003</v>
       </c>
       <c r="H736" s="16">
-        <v>-92.455806199999998</v>
+        <v>-92.440025000000006</v>
       </c>
     </row>
     <row r="737" spans="1:8" ht="16" thickBot="1">
@@ -22601,25 +22918,25 @@
         <v>40086</v>
       </c>
       <c r="B737" s="14">
-        <v>0.61766203703703704</v>
+        <v>0.64875000000000005</v>
       </c>
       <c r="C737" s="15" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D737" s="15" t="s">
-        <v>13</v>
+        <v>922</v>
       </c>
       <c r="E737" s="15" t="s">
         <v>10</v>
       </c>
       <c r="F737" s="15" t="s">
-        <v>14</v>
+        <v>923</v>
       </c>
       <c r="G737" s="16">
-        <v>42.486379900000003</v>
+        <v>42.535929500000002</v>
       </c>
       <c r="H737" s="16">
-        <v>-92.440025000000006</v>
+        <v>-92.445464799999996</v>
       </c>
     </row>
     <row r="738" spans="1:8" ht="16" thickBot="1">
@@ -22627,25 +22944,25 @@
         <v>40086</v>
       </c>
       <c r="B738" s="14">
-        <v>0.64875000000000005</v>
+        <v>0.69403935185185184</v>
       </c>
       <c r="C738" s="15" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D738" s="15" t="s">
-        <v>923</v>
+        <v>910</v>
       </c>
       <c r="E738" s="15" t="s">
         <v>10</v>
       </c>
       <c r="F738" s="15" t="s">
-        <v>924</v>
+        <v>911</v>
       </c>
       <c r="G738" s="16">
-        <v>42.535929500000002</v>
+        <v>42.514479000000001</v>
       </c>
       <c r="H738" s="16">
-        <v>-92.445464799999996</v>
+        <v>-92.453770000000006</v>
       </c>
     </row>
     <row r="739" spans="1:8" ht="16" thickBot="1">
@@ -22653,117 +22970,117 @@
         <v>40086</v>
       </c>
       <c r="B739" s="14">
-        <v>0.69403935185185184</v>
+        <v>0.69828703703703709</v>
       </c>
       <c r="C739" s="15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D739" s="15" t="s">
-        <v>911</v>
+        <v>924</v>
       </c>
       <c r="E739" s="15" t="s">
         <v>10</v>
       </c>
       <c r="F739" s="15" t="s">
-        <v>912</v>
+        <v>925</v>
       </c>
       <c r="G739" s="16">
-        <v>42.514479000000001</v>
+        <v>42.504708000000001</v>
       </c>
       <c r="H739" s="16">
-        <v>-92.453770000000006</v>
+        <v>-92.425701000000004</v>
       </c>
     </row>
     <row r="740" spans="1:8" ht="16" thickBot="1">
-      <c r="A740" s="21">
-        <v>40086</v>
-      </c>
-      <c r="B740" s="14">
-        <v>0.69828703703703709</v>
-      </c>
-      <c r="C740" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D740" s="15" t="s">
-        <v>925</v>
-      </c>
-      <c r="E740" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F740" s="15" t="s">
-        <v>926</v>
-      </c>
-      <c r="G740" s="16">
-        <v>42.504708000000001</v>
-      </c>
-      <c r="H740" s="16">
-        <v>-92.425701000000004</v>
+      <c r="A740" s="11" t="s">
+        <v>964</v>
+      </c>
+      <c r="B740" s="17" t="s">
+        <v>965</v>
+      </c>
+      <c r="C740" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D740" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="E740" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F740" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G740" s="13">
+        <v>42.514471</v>
+      </c>
+      <c r="H740" s="13">
+        <v>-92.459536</v>
       </c>
     </row>
     <row r="741" spans="1:8" ht="16" thickBot="1">
-      <c r="A741" s="11" t="s">
-        <v>965</v>
-      </c>
-      <c r="B741" s="17" t="s">
+      <c r="A741" s="21">
+        <v>40087</v>
+      </c>
+      <c r="B741" s="14">
+        <v>0.8736342592592593</v>
+      </c>
+      <c r="C741" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D741" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E741" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F741" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G741" s="16">
+        <v>42.511099100000003</v>
+      </c>
+      <c r="H741" s="16">
+        <v>-92.435960800000004</v>
+      </c>
+    </row>
+    <row r="742" spans="1:8" ht="16" thickBot="1">
+      <c r="A742" s="11" t="s">
         <v>966</v>
       </c>
-      <c r="C741" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D741" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="E741" s="13" t="s">
+      <c r="B742" s="17" t="s">
+        <v>967</v>
+      </c>
+      <c r="C742" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D742" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E742" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="F741" s="13" t="s">
+      <c r="F742" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="G741" s="13">
-        <v>42.514471</v>
-      </c>
-      <c r="H741" s="13">
-        <v>-92.459536</v>
-      </c>
-    </row>
-    <row r="742" spans="1:8" ht="16" thickBot="1">
-      <c r="A742" s="21">
-        <v>40087</v>
-      </c>
-      <c r="B742" s="14">
-        <v>0.8736342592592593</v>
-      </c>
-      <c r="C742" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D742" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E742" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F742" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G742" s="16">
-        <v>42.511099100000003</v>
-      </c>
-      <c r="H742" s="16">
-        <v>-92.435960800000004</v>
+      <c r="G742" s="13">
+        <v>42.515762000000002</v>
+      </c>
+      <c r="H742" s="13">
+        <v>-92.467191999999997</v>
       </c>
     </row>
     <row r="743" spans="1:8" ht="16" thickBot="1">
       <c r="A743" s="11" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B743" s="17" t="s">
         <v>968</v>
       </c>
       <c r="C743" s="13" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D743" s="13" t="s">
-        <v>209</v>
+        <v>358</v>
       </c>
       <c r="E743" s="13" t="s">
         <v>59</v>
@@ -22772,36 +23089,36 @@
         <v>60</v>
       </c>
       <c r="G743" s="13">
-        <v>42.515762000000002</v>
+        <v>42.508200000000002</v>
       </c>
       <c r="H743" s="13">
-        <v>-92.467191999999997</v>
+        <v>-92.450855000000004</v>
       </c>
     </row>
     <row r="744" spans="1:8" ht="16" thickBot="1">
-      <c r="A744" s="11" t="s">
-        <v>967</v>
-      </c>
-      <c r="B744" s="17" t="s">
-        <v>969</v>
-      </c>
-      <c r="C744" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D744" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="E744" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F744" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G744" s="13">
-        <v>42.508200000000002</v>
-      </c>
-      <c r="H744" s="13">
-        <v>-92.450855000000004</v>
+      <c r="A744" s="21">
+        <v>40088</v>
+      </c>
+      <c r="B744" s="14">
+        <v>0.3401851851851852</v>
+      </c>
+      <c r="C744" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D744" s="15" t="s">
+        <v>926</v>
+      </c>
+      <c r="E744" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F744" s="15" t="s">
+        <v>927</v>
+      </c>
+      <c r="G744" s="16">
+        <v>42.529418200000002</v>
+      </c>
+      <c r="H744" s="16">
+        <v>-92.460577799999996</v>
       </c>
     </row>
     <row r="745" spans="1:8" ht="16" thickBot="1">
@@ -22809,25 +23126,25 @@
         <v>40088</v>
       </c>
       <c r="B745" s="14">
-        <v>0.3401851851851852</v>
+        <v>0.36057870370370365</v>
       </c>
       <c r="C745" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D745" s="15" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="E745" s="15" t="s">
         <v>10</v>
       </c>
       <c r="F745" s="15" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="G745" s="16">
-        <v>42.529418200000002</v>
+        <v>42.531630999999997</v>
       </c>
       <c r="H745" s="16">
-        <v>-92.460577799999996</v>
+        <v>-92.443843000000001</v>
       </c>
     </row>
     <row r="746" spans="1:8" ht="16" thickBot="1">
@@ -22835,155 +23152,155 @@
         <v>40088</v>
       </c>
       <c r="B746" s="14">
-        <v>0.36057870370370365</v>
+        <v>0.74351851851851858</v>
       </c>
       <c r="C746" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D746" s="15" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E746" s="15" t="s">
         <v>10</v>
       </c>
       <c r="F746" s="15" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="G746" s="16">
-        <v>42.531630999999997</v>
+        <v>42.517015000000001</v>
       </c>
       <c r="H746" s="16">
-        <v>-92.443843000000001</v>
+        <v>-92.453035</v>
       </c>
     </row>
     <row r="747" spans="1:8" ht="16" thickBot="1">
       <c r="A747" s="21">
-        <v>40088</v>
+        <v>40089</v>
       </c>
       <c r="B747" s="14">
-        <v>0.74351851851851858</v>
+        <v>0.6013425925925926</v>
       </c>
       <c r="C747" s="15" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D747" s="15" t="s">
-        <v>931</v>
+        <v>151</v>
       </c>
       <c r="E747" s="15" t="s">
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="F747" s="15" t="s">
-        <v>932</v>
+        <v>152</v>
       </c>
       <c r="G747" s="16">
-        <v>42.517015000000001</v>
+        <v>42.536400999999998</v>
       </c>
       <c r="H747" s="16">
-        <v>-92.453035</v>
+        <v>-92.447759000000005</v>
       </c>
     </row>
     <row r="748" spans="1:8" ht="16" thickBot="1">
-      <c r="A748" s="21">
-        <v>40089</v>
-      </c>
-      <c r="B748" s="14">
-        <v>0.6013425925925926</v>
-      </c>
-      <c r="C748" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D748" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="E748" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="F748" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="G748" s="16">
-        <v>42.536400999999998</v>
-      </c>
-      <c r="H748" s="16">
-        <v>-92.447759000000005</v>
+      <c r="A748" s="11" t="s">
+        <v>969</v>
+      </c>
+      <c r="B748" s="17" t="s">
+        <v>970</v>
+      </c>
+      <c r="C748" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D748" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="E748" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F748" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G748" s="13">
+        <v>42.514871999999997</v>
+      </c>
+      <c r="H748" s="13">
+        <v>-92.458669999999998</v>
       </c>
     </row>
     <row r="749" spans="1:8" ht="16" thickBot="1">
       <c r="A749" s="11" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B749" s="17" t="s">
         <v>971</v>
       </c>
       <c r="C749" s="13" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D749" s="13" t="s">
-        <v>531</v>
+        <v>251</v>
       </c>
       <c r="E749" s="13" t="s">
-        <v>137</v>
+        <v>59</v>
       </c>
       <c r="F749" s="13" t="s">
         <v>60</v>
       </c>
       <c r="G749" s="13">
-        <v>42.514871999999997</v>
+        <v>42.517180000000003</v>
       </c>
       <c r="H749" s="13">
-        <v>-92.458669999999998</v>
+        <v>-92.461573000000001</v>
       </c>
     </row>
     <row r="750" spans="1:8" ht="16" thickBot="1">
-      <c r="A750" s="11" t="s">
-        <v>970</v>
-      </c>
-      <c r="B750" s="17" t="s">
-        <v>972</v>
-      </c>
-      <c r="C750" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D750" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="E750" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F750" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G750" s="13">
-        <v>42.517180000000003</v>
-      </c>
-      <c r="H750" s="13">
-        <v>-92.461573000000001</v>
+      <c r="A750" s="21">
+        <v>40090</v>
+      </c>
+      <c r="B750" s="14">
+        <v>0.65096064814814814</v>
+      </c>
+      <c r="C750" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D750" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="E750" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F750" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="G750" s="16">
+        <v>42.512065</v>
+      </c>
+      <c r="H750" s="16">
+        <v>-92.471817999999999</v>
       </c>
     </row>
     <row r="751" spans="1:8" ht="16" thickBot="1">
       <c r="A751" s="21">
-        <v>40090</v>
+        <v>40091</v>
       </c>
       <c r="B751" s="14">
-        <v>0.65096064814814814</v>
+        <v>0.23201388888888888</v>
       </c>
       <c r="C751" s="15" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D751" s="15" t="s">
-        <v>288</v>
+        <v>932</v>
       </c>
       <c r="E751" s="15" t="s">
         <v>10</v>
       </c>
       <c r="F751" s="15" t="s">
-        <v>289</v>
+        <v>933</v>
       </c>
       <c r="G751" s="16">
-        <v>42.512065</v>
+        <v>42.5322988</v>
       </c>
       <c r="H751" s="16">
-        <v>-92.471817999999999</v>
+        <v>-92.454687699999994</v>
       </c>
     </row>
     <row r="752" spans="1:8" ht="16" thickBot="1">
@@ -22991,51 +23308,51 @@
         <v>40091</v>
       </c>
       <c r="B752" s="14">
-        <v>0.23201388888888888</v>
+        <v>0.42324074074074075</v>
       </c>
       <c r="C752" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D752" s="15" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E752" s="15" t="s">
         <v>10</v>
       </c>
       <c r="F752" s="15" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="G752" s="16">
-        <v>42.5322988</v>
+        <v>42.555124900000003</v>
       </c>
       <c r="H752" s="16">
-        <v>-92.454687699999994</v>
-      </c>
-    </row>
-    <row r="753" spans="1:8" ht="16" thickBot="1">
-      <c r="A753" s="21">
+        <v>-92.456657000000007</v>
+      </c>
+    </row>
+    <row r="753" spans="1:8">
+      <c r="A753" s="22">
         <v>40091</v>
       </c>
-      <c r="B753" s="14">
-        <v>0.42324074074074075</v>
-      </c>
-      <c r="C753" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D753" s="15" t="s">
-        <v>935</v>
-      </c>
-      <c r="E753" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F753" s="15" t="s">
+      <c r="B753" s="18">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="C753" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D753" s="19" t="s">
         <v>936</v>
       </c>
-      <c r="G753" s="16">
-        <v>42.555124900000003</v>
-      </c>
-      <c r="H753" s="16">
-        <v>-92.456657000000007</v>
+      <c r="E753" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F753" s="19" t="s">
+        <v>937</v>
+      </c>
+      <c r="G753" s="20">
+        <v>42.523274999999998</v>
+      </c>
+      <c r="H753" s="20">
+        <v>-92.454322000000005</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -23043,25 +23360,25 @@
         <v>40091</v>
       </c>
       <c r="B754" s="18">
-        <v>0.43333333333333335</v>
+        <v>0.52538194444444442</v>
       </c>
       <c r="C754" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D754" s="19" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="E754" s="19" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F754" s="19" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="G754" s="20">
-        <v>42.523274999999998</v>
+        <v>42.554251000000001</v>
       </c>
       <c r="H754" s="20">
-        <v>-92.454322000000005</v>
+        <v>-92.453877000000006</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -23069,77 +23386,77 @@
         <v>40091</v>
       </c>
       <c r="B755" s="18">
-        <v>0.52538194444444442</v>
+        <v>0.82818287037037042</v>
       </c>
       <c r="C755" s="19" t="s">
-        <v>8</v>
+        <v>940</v>
       </c>
       <c r="D755" s="19" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="E755" s="19" t="s">
         <v>10</v>
       </c>
       <c r="F755" s="19" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="G755" s="20">
-        <v>42.554251000000001</v>
+        <v>42.4695094</v>
       </c>
       <c r="H755" s="20">
-        <v>-92.453877000000006</v>
+        <v>-92.449947600000002</v>
       </c>
     </row>
     <row r="756" spans="1:8">
-      <c r="A756" s="22">
-        <v>40091</v>
-      </c>
-      <c r="B756" s="18">
-        <v>0.82818287037037042</v>
-      </c>
-      <c r="C756" s="19" t="s">
-        <v>941</v>
-      </c>
-      <c r="D756" s="19" t="s">
-        <v>942</v>
-      </c>
-      <c r="E756" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F756" s="19" t="s">
+      <c r="A756" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="B756" s="7" t="s">
+        <v>905</v>
+      </c>
+      <c r="C756" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D756" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E756" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F756" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G756" s="2">
+        <v>42.508200000000002</v>
+      </c>
+      <c r="H756" s="2">
+        <v>-92.450855000000004</v>
+      </c>
+    </row>
+    <row r="757" spans="1:8">
+      <c r="A757" s="22">
+        <v>40093</v>
+      </c>
+      <c r="B757" s="18">
+        <v>0.31521990740740741</v>
+      </c>
+      <c r="C757" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D757" s="19" t="s">
         <v>943</v>
       </c>
-      <c r="G756" s="20">
-        <v>42.4695094</v>
-      </c>
-      <c r="H756" s="20">
-        <v>-92.449947600000002</v>
-      </c>
-    </row>
-    <row r="757" spans="1:8">
-      <c r="A757" s="1" t="s">
-        <v>973</v>
-      </c>
-      <c r="B757" s="7" t="s">
-        <v>906</v>
-      </c>
-      <c r="C757" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D757" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="E757" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F757" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G757" s="2">
-        <v>42.508200000000002</v>
-      </c>
-      <c r="H757" s="2">
-        <v>-92.450855000000004</v>
+      <c r="E757" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F757" s="19" t="s">
+        <v>944</v>
+      </c>
+      <c r="G757" s="20">
+        <v>42.522359999999999</v>
+      </c>
+      <c r="H757" s="20">
+        <v>-92.448566</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -23147,25 +23464,25 @@
         <v>40093</v>
       </c>
       <c r="B758" s="18">
-        <v>0.31521990740740741</v>
+        <v>0.44089120370370366</v>
       </c>
       <c r="C758" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D758" s="19" t="s">
-        <v>944</v>
+        <v>210</v>
       </c>
       <c r="E758" s="19" t="s">
         <v>10</v>
       </c>
       <c r="F758" s="19" t="s">
-        <v>945</v>
+        <v>211</v>
       </c>
       <c r="G758" s="20">
-        <v>42.522359999999999</v>
+        <v>42.532972000000001</v>
       </c>
       <c r="H758" s="20">
-        <v>-92.448566</v>
+        <v>-92.445920999999998</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -23173,25 +23490,25 @@
         <v>40093</v>
       </c>
       <c r="B759" s="18">
-        <v>0.44089120370370366</v>
+        <v>0.45302083333333337</v>
       </c>
       <c r="C759" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D759" s="19" t="s">
-        <v>210</v>
+        <v>945</v>
       </c>
       <c r="E759" s="19" t="s">
         <v>10</v>
       </c>
       <c r="F759" s="19" t="s">
-        <v>211</v>
+        <v>946</v>
       </c>
       <c r="G759" s="20">
-        <v>42.532972000000001</v>
+        <v>42.526775000000001</v>
       </c>
       <c r="H759" s="20">
-        <v>-92.445920999999998</v>
+        <v>-92.478453999999999</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -23199,25 +23516,25 @@
         <v>40093</v>
       </c>
       <c r="B760" s="18">
-        <v>0.45302083333333337</v>
+        <v>0.4647337962962963</v>
       </c>
       <c r="C760" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D760" s="19" t="s">
-        <v>946</v>
+        <v>659</v>
       </c>
       <c r="E760" s="19" t="s">
         <v>10</v>
       </c>
       <c r="F760" s="19" t="s">
-        <v>947</v>
+        <v>660</v>
       </c>
       <c r="G760" s="20">
-        <v>42.526775000000001</v>
+        <v>42.505607400000002</v>
       </c>
       <c r="H760" s="20">
-        <v>-92.478453999999999</v>
+        <v>-92.415502099999998</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -23225,51 +23542,51 @@
         <v>40093</v>
       </c>
       <c r="B761" s="18">
-        <v>0.4647337962962963</v>
+        <v>0.62496527777777777</v>
       </c>
       <c r="C761" s="19" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D761" s="19" t="s">
-        <v>659</v>
+        <v>947</v>
       </c>
       <c r="E761" s="19" t="s">
         <v>10</v>
       </c>
       <c r="F761" s="19" t="s">
-        <v>660</v>
+        <v>948</v>
       </c>
       <c r="G761" s="20">
-        <v>42.505607400000002</v>
+        <v>42.469509700000003</v>
       </c>
       <c r="H761" s="20">
-        <v>-92.415502099999998</v>
+        <v>-92.449904399999994</v>
       </c>
     </row>
     <row r="762" spans="1:8">
       <c r="A762" s="22">
-        <v>40093</v>
+        <v>40094</v>
       </c>
       <c r="B762" s="18">
-        <v>0.62496527777777777</v>
+        <v>0.84643518518518512</v>
       </c>
       <c r="C762" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D762" s="19" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="E762" s="19" t="s">
         <v>10</v>
       </c>
       <c r="F762" s="19" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="G762" s="20">
-        <v>42.469509700000003</v>
+        <v>42.507980000000003</v>
       </c>
       <c r="H762" s="20">
-        <v>-92.449904399999994</v>
+        <v>-92.460860999999994</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -23277,65 +23594,65 @@
         <v>40094</v>
       </c>
       <c r="B763" s="18">
-        <v>0.84643518518518512</v>
+        <v>0.95575231481481471</v>
       </c>
       <c r="C763" s="19" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D763" s="19" t="s">
-        <v>950</v>
+        <v>368</v>
       </c>
       <c r="E763" s="19" t="s">
         <v>10</v>
       </c>
       <c r="F763" s="19" t="s">
-        <v>951</v>
+        <v>369</v>
       </c>
       <c r="G763" s="20">
-        <v>42.507980000000003</v>
+        <v>42.561056000000001</v>
       </c>
       <c r="H763" s="20">
-        <v>-92.460860999999994</v>
+        <v>-92.456411000000003</v>
       </c>
     </row>
     <row r="764" spans="1:8">
-      <c r="A764" s="22">
-        <v>40094</v>
-      </c>
-      <c r="B764" s="18">
-        <v>0.95575231481481471</v>
-      </c>
-      <c r="C764" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D764" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="E764" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F764" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="G764" s="20">
-        <v>42.561056000000001</v>
-      </c>
-      <c r="H764" s="20">
-        <v>-92.456411000000003</v>
+      <c r="A764" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="B764" s="7" t="s">
+        <v>974</v>
+      </c>
+      <c r="C764" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D764" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E764" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F764" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G764" s="2">
+        <v>42.508200000000002</v>
+      </c>
+      <c r="H764" s="2">
+        <v>-92.450855000000004</v>
       </c>
     </row>
     <row r="765" spans="1:8">
       <c r="A765" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B765" s="7" t="s">
-        <v>975</v>
+        <v>968</v>
       </c>
       <c r="C765" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D765" s="2" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="E765" s="2" t="s">
         <v>59</v>
@@ -23344,24 +23661,24 @@
         <v>60</v>
       </c>
       <c r="G765" s="2">
-        <v>42.508200000000002</v>
+        <v>42.511991000000002</v>
       </c>
       <c r="H765" s="2">
-        <v>-92.450855000000004</v>
+        <v>-92.463426999999996</v>
       </c>
     </row>
     <row r="766" spans="1:8">
       <c r="A766" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B766" s="7" t="s">
-        <v>969</v>
+        <v>975</v>
       </c>
       <c r="C766" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D766" s="2" t="s">
-        <v>374</v>
+        <v>70</v>
       </c>
       <c r="E766" s="2" t="s">
         <v>59</v>
@@ -23370,36 +23687,2194 @@
         <v>60</v>
       </c>
       <c r="G766" s="2">
-        <v>42.511991000000002</v>
+        <v>42.511201</v>
       </c>
       <c r="H766" s="2">
-        <v>-92.463426999999996</v>
-      </c>
-    </row>
-    <row r="767" spans="1:8">
-      <c r="A767" s="1" t="s">
-        <v>974</v>
-      </c>
-      <c r="B767" s="7" t="s">
+        <v>-92.464398000000003</v>
+      </c>
+    </row>
+    <row r="767" spans="1:8" ht="65" thickBot="1">
+      <c r="A767" s="23">
+        <v>40095</v>
+      </c>
+      <c r="B767" s="24">
+        <v>0.7912731481481482</v>
+      </c>
+      <c r="C767" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D767" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="E767" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F767" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="G767" s="26">
+        <v>42.481582000000003</v>
+      </c>
+      <c r="H767" s="26">
+        <v>-92.444288</v>
+      </c>
+    </row>
+    <row r="768" spans="1:8" ht="49" thickBot="1">
+      <c r="A768" s="23">
+        <v>40096</v>
+      </c>
+      <c r="B768" s="24">
+        <v>0.49231481481481482</v>
+      </c>
+      <c r="C768" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="D768" s="25" t="s">
         <v>976</v>
       </c>
-      <c r="C767" s="2" t="s">
+      <c r="E768" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="F768" s="25" t="s">
+        <v>977</v>
+      </c>
+      <c r="G768" s="26">
+        <v>42.520462000000002</v>
+      </c>
+      <c r="H768" s="26">
+        <v>-92.453783999999999</v>
+      </c>
+    </row>
+    <row r="769" spans="1:8" ht="49" thickBot="1">
+      <c r="A769" s="23">
+        <v>40097</v>
+      </c>
+      <c r="B769" s="24">
+        <v>5.4629629629629637E-3</v>
+      </c>
+      <c r="C769" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D769" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="E769" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F769" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="G769" s="26">
+        <v>42.536400999999998</v>
+      </c>
+      <c r="H769" s="26">
+        <v>-92.447759000000005</v>
+      </c>
+    </row>
+    <row r="770" spans="1:8" ht="49" thickBot="1">
+      <c r="A770" s="23">
+        <v>40097</v>
+      </c>
+      <c r="B770" s="24">
+        <v>9.3541666666666676E-2</v>
+      </c>
+      <c r="C770" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D770" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E770" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F770" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G770" s="26">
+        <v>42.518929999999997</v>
+      </c>
+      <c r="H770" s="26">
+        <v>-92.456235000000007</v>
+      </c>
+    </row>
+    <row r="771" spans="1:8" ht="49" thickBot="1">
+      <c r="A771" s="23">
+        <v>40097</v>
+      </c>
+      <c r="B771" s="24">
+        <v>0.21490740740740741</v>
+      </c>
+      <c r="C771" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D771" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E771" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F771" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G771" s="26">
+        <v>42.470082599999998</v>
+      </c>
+      <c r="H771" s="26">
+        <v>-92.447770500000004</v>
+      </c>
+    </row>
+    <row r="772" spans="1:8" ht="65" thickBot="1">
+      <c r="A772" s="23">
+        <v>40097</v>
+      </c>
+      <c r="B772" s="24">
+        <v>0.61600694444444437</v>
+      </c>
+      <c r="C772" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D772" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="E772" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F772" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="G772" s="26">
+        <v>42.481582000000003</v>
+      </c>
+      <c r="H772" s="26">
+        <v>-92.444288</v>
+      </c>
+    </row>
+    <row r="773" spans="1:8" ht="49" thickBot="1">
+      <c r="A773" s="23">
+        <v>40097</v>
+      </c>
+      <c r="B773" s="24">
+        <v>0.92903935185185194</v>
+      </c>
+      <c r="C773" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D773" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E773" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F773" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G773" s="26">
+        <v>42.518929999999997</v>
+      </c>
+      <c r="H773" s="26">
+        <v>-92.456235000000007</v>
+      </c>
+    </row>
+    <row r="774" spans="1:8" ht="49" thickBot="1">
+      <c r="A774" s="23">
+        <v>40098</v>
+      </c>
+      <c r="B774" s="24">
+        <v>0.33597222222222217</v>
+      </c>
+      <c r="C774" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D774" s="25" t="s">
+        <v>978</v>
+      </c>
+      <c r="E774" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F774" s="25" t="s">
+        <v>979</v>
+      </c>
+      <c r="G774" s="26">
+        <v>42.525669800000003</v>
+      </c>
+      <c r="H774" s="26">
+        <v>-92.447643400000004</v>
+      </c>
+    </row>
+    <row r="775" spans="1:8" ht="49" thickBot="1">
+      <c r="A775" s="23">
+        <v>40098</v>
+      </c>
+      <c r="B775" s="24">
+        <v>0.46846064814814814</v>
+      </c>
+      <c r="C775" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D775" s="25" t="s">
+        <v>980</v>
+      </c>
+      <c r="E775" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F775" s="25" t="s">
+        <v>981</v>
+      </c>
+      <c r="G775" s="26">
+        <v>42.516475999999997</v>
+      </c>
+      <c r="H775" s="26">
+        <v>-92.427346</v>
+      </c>
+    </row>
+    <row r="776" spans="1:8" ht="49" thickBot="1">
+      <c r="A776" s="23">
+        <v>40098</v>
+      </c>
+      <c r="B776" s="24">
+        <v>0.48256944444444444</v>
+      </c>
+      <c r="C776" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="D776" s="25" t="s">
+        <v>982</v>
+      </c>
+      <c r="E776" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="F776" s="25" t="s">
+        <v>983</v>
+      </c>
+      <c r="G776" s="26">
+        <v>42.503641100000003</v>
+      </c>
+      <c r="H776" s="26">
+        <v>-92.408459199999996</v>
+      </c>
+    </row>
+    <row r="777" spans="1:8" ht="49" thickBot="1">
+      <c r="A777" s="23">
+        <v>40098</v>
+      </c>
+      <c r="B777" s="24">
+        <v>0.97204861111111107</v>
+      </c>
+      <c r="C777" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D777" s="25" t="s">
+        <v>984</v>
+      </c>
+      <c r="E777" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F777" s="25" t="s">
+        <v>985</v>
+      </c>
+      <c r="G777" s="26">
+        <v>42.514034199999998</v>
+      </c>
+      <c r="H777" s="26">
+        <v>-92.454712000000001</v>
+      </c>
+    </row>
+    <row r="778" spans="1:8" ht="49" thickBot="1">
+      <c r="A778" s="23">
+        <v>40099</v>
+      </c>
+      <c r="B778" s="24">
+        <v>0.38943287037037039</v>
+      </c>
+      <c r="C778" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D778" s="25" t="s">
+        <v>986</v>
+      </c>
+      <c r="E778" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F778" s="25" t="s">
+        <v>987</v>
+      </c>
+      <c r="G778" s="26">
+        <v>42.558625900000003</v>
+      </c>
+      <c r="H778" s="26">
+        <v>-92.435214999999999</v>
+      </c>
+    </row>
+    <row r="779" spans="1:8" ht="65" thickBot="1">
+      <c r="A779" s="23">
+        <v>40099</v>
+      </c>
+      <c r="B779" s="24">
+        <v>0.6010416666666667</v>
+      </c>
+      <c r="C779" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D779" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E779" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F779" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G779" s="26">
+        <v>42.486379900000003</v>
+      </c>
+      <c r="H779" s="26">
+        <v>-92.440025000000006</v>
+      </c>
+    </row>
+    <row r="780" spans="1:8" ht="49" thickBot="1">
+      <c r="A780" s="23">
+        <v>40099</v>
+      </c>
+      <c r="B780" s="24">
+        <v>0.94616898148148154</v>
+      </c>
+      <c r="C780" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D780" s="25" t="s">
+        <v>903</v>
+      </c>
+      <c r="E780" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F780" s="25" t="s">
+        <v>904</v>
+      </c>
+      <c r="G780" s="26">
+        <v>42.509291900000001</v>
+      </c>
+      <c r="H780" s="26">
+        <v>-92.431697499999999</v>
+      </c>
+    </row>
+    <row r="781" spans="1:8" ht="65" thickBot="1">
+      <c r="A781" s="23">
+        <v>40096</v>
+      </c>
+      <c r="B781" s="24">
+        <v>1.8055555555555557E-2</v>
+      </c>
+      <c r="C781" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D781" s="25" t="s">
+        <v>988</v>
+      </c>
+      <c r="E781" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="F781" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G781" s="26">
+        <v>42.514294</v>
+      </c>
+      <c r="H781" s="26">
+        <v>-92.462687000000003</v>
+      </c>
+    </row>
+    <row r="782" spans="1:8" ht="33" thickBot="1">
+      <c r="A782" s="23">
+        <v>40097</v>
+      </c>
+      <c r="B782" s="24">
+        <v>0.65486111111111112</v>
+      </c>
+      <c r="C782" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D782" s="25" t="s">
+        <v>989</v>
+      </c>
+      <c r="E782" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F782" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G782" s="26">
+        <v>42.514767999999997</v>
+      </c>
+      <c r="H782" s="26">
+        <v>-92.469188000000003</v>
+      </c>
+    </row>
+    <row r="783" spans="1:8" ht="33" thickBot="1">
+      <c r="A783" s="23">
+        <v>40099</v>
+      </c>
+      <c r="B783" s="24">
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="C783" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D767" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E767" s="2" t="s">
+      <c r="D783" s="25" t="s">
+        <v>990</v>
+      </c>
+      <c r="E783" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="F767" s="2" t="s">
+      <c r="F783" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="G767" s="2">
-        <v>42.511201</v>
-      </c>
-      <c r="H767" s="2">
-        <v>-92.464398000000003</v>
+      <c r="G783" s="26">
+        <v>42.510599999999997</v>
+      </c>
+      <c r="H783" s="26">
+        <v>-92.464777999999995</v>
+      </c>
+    </row>
+    <row r="784" spans="1:8" ht="49" thickBot="1">
+      <c r="A784" s="27">
+        <v>40101</v>
+      </c>
+      <c r="B784" s="28">
+        <v>0.82179398148148142</v>
+      </c>
+      <c r="C784" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D784" s="29" t="s">
+        <v>991</v>
+      </c>
+      <c r="E784" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="F784" s="29" t="s">
+        <v>992</v>
+      </c>
+      <c r="G784" s="30">
+        <v>42.526677900000003</v>
+      </c>
+      <c r="H784" s="30">
+        <v>-92.418107000000006</v>
+      </c>
+    </row>
+    <row r="785" spans="1:8" ht="49" thickBot="1">
+      <c r="A785" s="23">
+        <v>40101</v>
+      </c>
+      <c r="B785" s="24">
+        <v>0.85217592592592595</v>
+      </c>
+      <c r="C785" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D785" s="25" t="s">
+        <v>680</v>
+      </c>
+      <c r="E785" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F785" s="25" t="s">
+        <v>681</v>
+      </c>
+      <c r="G785" s="26">
+        <v>42.513990999999997</v>
+      </c>
+      <c r="H785" s="26">
+        <v>-92.413291000000001</v>
+      </c>
+    </row>
+    <row r="786" spans="1:8" ht="49" thickBot="1">
+      <c r="A786" s="23">
+        <v>40102</v>
+      </c>
+      <c r="B786" s="24">
+        <v>0.18702546296296296</v>
+      </c>
+      <c r="C786" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D786" s="25" t="s">
+        <v>993</v>
+      </c>
+      <c r="E786" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F786" s="25" t="s">
+        <v>994</v>
+      </c>
+      <c r="G786" s="26">
+        <v>42.5357992</v>
+      </c>
+      <c r="H786" s="26">
+        <v>-92.451322000000005</v>
+      </c>
+    </row>
+    <row r="787" spans="1:8" ht="49" thickBot="1">
+      <c r="A787" s="23">
+        <v>40102</v>
+      </c>
+      <c r="B787" s="24">
+        <v>0.48125000000000001</v>
+      </c>
+      <c r="C787" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D787" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E787" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F787" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G787" s="26">
+        <v>42.540228900000002</v>
+      </c>
+      <c r="H787" s="26">
+        <v>-92.434173999999999</v>
+      </c>
+    </row>
+    <row r="788" spans="1:8" ht="49" thickBot="1">
+      <c r="A788" s="23">
+        <v>40102</v>
+      </c>
+      <c r="B788" s="24">
+        <v>0.73498842592592595</v>
+      </c>
+      <c r="C788" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D788" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="E788" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F788" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="G788" s="26">
+        <v>42.488428900000002</v>
+      </c>
+      <c r="H788" s="26">
+        <v>-92.444533000000007</v>
+      </c>
+    </row>
+    <row r="789" spans="1:8" ht="49" thickBot="1">
+      <c r="A789" s="23">
+        <v>40102</v>
+      </c>
+      <c r="B789" s="24">
+        <v>0.99565972222222221</v>
+      </c>
+      <c r="C789" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D789" s="25" t="s">
+        <v>995</v>
+      </c>
+      <c r="E789" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F789" s="25" t="s">
+        <v>996</v>
+      </c>
+      <c r="G789" s="26">
+        <v>42.556263000000001</v>
+      </c>
+      <c r="H789" s="26">
+        <v>-92.417135999999999</v>
+      </c>
+    </row>
+    <row r="790" spans="1:8" ht="49" thickBot="1">
+      <c r="A790" s="23">
+        <v>40103</v>
+      </c>
+      <c r="B790" s="24">
+        <v>0.82028935185185192</v>
+      </c>
+      <c r="C790" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D790" s="25" t="s">
+        <v>997</v>
+      </c>
+      <c r="E790" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F790" s="25" t="s">
+        <v>998</v>
+      </c>
+      <c r="G790" s="26">
+        <v>42.572009999999999</v>
+      </c>
+      <c r="H790" s="26">
+        <v>-92.455565000000007</v>
+      </c>
+    </row>
+    <row r="791" spans="1:8" ht="49" thickBot="1">
+      <c r="A791" s="23">
+        <v>40103</v>
+      </c>
+      <c r="B791" s="24">
+        <v>0.84339120370370368</v>
+      </c>
+      <c r="C791" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D791" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="E791" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F791" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="G791" s="26">
+        <v>42.533954999999999</v>
+      </c>
+      <c r="H791" s="26">
+        <v>-92.458382</v>
+      </c>
+    </row>
+    <row r="792" spans="1:8" ht="49" thickBot="1">
+      <c r="A792" s="23">
+        <v>40103</v>
+      </c>
+      <c r="B792" s="24">
+        <v>0.97700231481481481</v>
+      </c>
+      <c r="C792" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D792" s="25" t="s">
+        <v>999</v>
+      </c>
+      <c r="E792" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F792" s="25" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G792" s="26">
+        <v>42.517097</v>
+      </c>
+      <c r="H792" s="26">
+        <v>-92.458241000000001</v>
+      </c>
+    </row>
+    <row r="793" spans="1:8" ht="49" thickBot="1">
+      <c r="A793" s="23">
+        <v>40104</v>
+      </c>
+      <c r="B793" s="24">
+        <v>0.47577546296296297</v>
+      </c>
+      <c r="C793" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D793" s="25" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E793" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F793" s="25" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G793" s="26">
+        <v>42.513576</v>
+      </c>
+      <c r="H793" s="26">
+        <v>-92.453768999999994</v>
+      </c>
+    </row>
+    <row r="794" spans="1:8" ht="49" thickBot="1">
+      <c r="A794" s="23">
+        <v>40104</v>
+      </c>
+      <c r="B794" s="24">
+        <v>0.9069328703703704</v>
+      </c>
+      <c r="C794" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D794" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E794" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F794" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="G794" s="26">
+        <v>42.510184000000002</v>
+      </c>
+      <c r="H794" s="26">
+        <v>-92.420536999999996</v>
+      </c>
+    </row>
+    <row r="795" spans="1:8" ht="49" thickBot="1">
+      <c r="A795" s="23">
+        <v>40105</v>
+      </c>
+      <c r="B795" s="24">
+        <v>0.60534722222222215</v>
+      </c>
+      <c r="C795" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D795" s="25" t="s">
+        <v>788</v>
+      </c>
+      <c r="E795" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F795" s="25" t="s">
+        <v>789</v>
+      </c>
+      <c r="G795" s="26">
+        <v>42.527035099999999</v>
+      </c>
+      <c r="H795" s="26">
+        <v>-92.444886699999998</v>
+      </c>
+    </row>
+    <row r="796" spans="1:8" ht="49" thickBot="1">
+      <c r="A796" s="23">
+        <v>40105</v>
+      </c>
+      <c r="B796" s="24">
+        <v>0.78298611111111116</v>
+      </c>
+      <c r="C796" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D796" s="25" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E796" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F796" s="25" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G796" s="26">
+        <v>42.514034199999998</v>
+      </c>
+      <c r="H796" s="26">
+        <v>-92.454712000000001</v>
+      </c>
+    </row>
+    <row r="797" spans="1:8" ht="97" thickBot="1">
+      <c r="A797" s="27">
+        <v>40107</v>
+      </c>
+      <c r="B797" s="28">
+        <v>0.39537037037037037</v>
+      </c>
+      <c r="C797" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D797" s="29" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E797" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F797" s="29" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G797" s="30">
+        <v>42.534899299999999</v>
+      </c>
+      <c r="H797" s="30">
+        <v>-92.445316099999999</v>
+      </c>
+    </row>
+    <row r="798" spans="1:8" ht="49" thickBot="1">
+      <c r="A798" s="23">
+        <v>40107</v>
+      </c>
+      <c r="B798" s="24">
+        <v>0.55785879629629631</v>
+      </c>
+      <c r="C798" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D798" s="25" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E798" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F798" s="25" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G798" s="26">
+        <v>42.569344000000001</v>
+      </c>
+      <c r="H798" s="26">
+        <v>-92.435282999999998</v>
+      </c>
+    </row>
+    <row r="799" spans="1:8" ht="49" thickBot="1">
+      <c r="A799" s="23">
+        <v>40108</v>
+      </c>
+      <c r="B799" s="24">
+        <v>0.42775462962962968</v>
+      </c>
+      <c r="C799" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D799" s="25" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E799" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F799" s="25" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G799" s="26">
+        <v>42.512065</v>
+      </c>
+      <c r="H799" s="26">
+        <v>-92.471817999999999</v>
+      </c>
+    </row>
+    <row r="800" spans="1:8" ht="49" thickBot="1">
+      <c r="A800" s="23">
+        <v>40108</v>
+      </c>
+      <c r="B800" s="24">
+        <v>0.65060185185185182</v>
+      </c>
+      <c r="C800" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="D800" s="25" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E800" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F800" s="25" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G800" s="26">
+        <v>42.527946</v>
+      </c>
+      <c r="H800" s="26">
+        <v>-92.443297000000001</v>
+      </c>
+    </row>
+    <row r="801" spans="1:8" ht="49" thickBot="1">
+      <c r="A801" s="23">
+        <v>40110</v>
+      </c>
+      <c r="B801" s="24">
+        <v>0.31913194444444443</v>
+      </c>
+      <c r="C801" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D801" s="25" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E801" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F801" s="25" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G801" s="26">
+        <v>42.504835</v>
+      </c>
+      <c r="H801" s="26">
+        <v>-92.407375000000002</v>
+      </c>
+    </row>
+    <row r="802" spans="1:8" ht="49" thickBot="1">
+      <c r="A802" s="23">
+        <v>40110</v>
+      </c>
+      <c r="B802" s="24">
+        <v>0.52218750000000003</v>
+      </c>
+      <c r="C802" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D802" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E802" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F802" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G802" s="26">
+        <v>42.511099100000003</v>
+      </c>
+      <c r="H802" s="26">
+        <v>-92.435960800000004</v>
+      </c>
+    </row>
+    <row r="803" spans="1:8" ht="65" thickBot="1">
+      <c r="A803" s="23">
+        <v>40110</v>
+      </c>
+      <c r="B803" s="24">
+        <v>0.58057870370370368</v>
+      </c>
+      <c r="C803" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D803" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="E803" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F803" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="G803" s="26">
+        <v>42.480448600000003</v>
+      </c>
+      <c r="H803" s="26">
+        <v>-92.444347899999997</v>
+      </c>
+    </row>
+    <row r="804" spans="1:8" ht="49" thickBot="1">
+      <c r="A804" s="23">
+        <v>40110</v>
+      </c>
+      <c r="B804" s="24">
+        <v>0.63537037037037036</v>
+      </c>
+      <c r="C804" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D804" s="25" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E804" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F804" s="25" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G804" s="26">
+        <v>42.538046000000001</v>
+      </c>
+      <c r="H804" s="26">
+        <v>-92.473162000000002</v>
+      </c>
+    </row>
+    <row r="805" spans="1:8" ht="49" thickBot="1">
+      <c r="A805" s="23">
+        <v>40111</v>
+      </c>
+      <c r="B805" s="24">
+        <v>0.59641203703703705</v>
+      </c>
+      <c r="C805" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D805" s="25" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E805" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F805" s="25" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G805" s="26">
+        <v>42.539725199999999</v>
+      </c>
+      <c r="H805" s="26">
+        <v>-92.458482900000007</v>
+      </c>
+    </row>
+    <row r="806" spans="1:8" ht="49" thickBot="1">
+      <c r="A806" s="23">
+        <v>40111</v>
+      </c>
+      <c r="B806" s="24">
+        <v>0.65542824074074069</v>
+      </c>
+      <c r="C806" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D806" s="25" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E806" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F806" s="25" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G806" s="26">
+        <v>42.569839999999999</v>
+      </c>
+      <c r="H806" s="26">
+        <v>-92.438619000000003</v>
+      </c>
+    </row>
+    <row r="807" spans="1:8" ht="97" thickBot="1">
+      <c r="A807" s="23">
+        <v>40112</v>
+      </c>
+      <c r="B807" s="24">
+        <v>0.10567129629629629</v>
+      </c>
+      <c r="C807" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D807" s="25" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E807" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F807" s="25" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G807" s="26">
+        <v>42.534899299999999</v>
+      </c>
+      <c r="H807" s="26">
+        <v>-92.445316099999999</v>
+      </c>
+    </row>
+    <row r="808" spans="1:8" ht="65" thickBot="1">
+      <c r="A808" s="23">
+        <v>40112</v>
+      </c>
+      <c r="B808" s="24">
+        <v>0.68686342592592586</v>
+      </c>
+      <c r="C808" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D808" s="25" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E808" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F808" s="25" t="s">
+        <v>1022</v>
+      </c>
+      <c r="G808" s="26">
+        <v>42.502448399999999</v>
+      </c>
+      <c r="H808" s="26">
+        <v>-92.474942400000003</v>
+      </c>
+    </row>
+    <row r="809" spans="1:8" ht="49" thickBot="1">
+      <c r="A809" s="23">
+        <v>40113</v>
+      </c>
+      <c r="B809" s="24">
+        <v>0.58811342592592586</v>
+      </c>
+      <c r="C809" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D809" s="25" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E809" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F809" s="25" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G809" s="26">
+        <v>42.520010900000003</v>
+      </c>
+      <c r="H809" s="26">
+        <v>-92.455177000000006</v>
+      </c>
+    </row>
+    <row r="810" spans="1:8" ht="49" thickBot="1">
+      <c r="A810" s="23">
+        <v>40113</v>
+      </c>
+      <c r="B810" s="24">
+        <v>0.68622685185185184</v>
+      </c>
+      <c r="C810" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D810" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="E810" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F810" s="25" t="s">
+        <v>440</v>
+      </c>
+      <c r="G810" s="26">
+        <v>42.537500999999999</v>
+      </c>
+      <c r="H810" s="26">
+        <v>-92.449886000000006</v>
+      </c>
+    </row>
+    <row r="811" spans="1:8" ht="49" thickBot="1">
+      <c r="A811" s="23">
+        <v>40114</v>
+      </c>
+      <c r="B811" s="24">
+        <v>0.33692129629629625</v>
+      </c>
+      <c r="C811" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D811" s="25" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E811" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F811" s="25" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G811" s="26">
+        <v>42.517350999999998</v>
+      </c>
+      <c r="H811" s="26">
+        <v>-92.455453000000006</v>
+      </c>
+    </row>
+    <row r="812" spans="1:8" ht="49" thickBot="1">
+      <c r="A812" s="23">
+        <v>40114</v>
+      </c>
+      <c r="B812" s="24">
+        <v>0.60111111111111104</v>
+      </c>
+      <c r="C812" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D812" s="25" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E812" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F812" s="25" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G812" s="26">
+        <v>42.509094099999999</v>
+      </c>
+      <c r="H812" s="26">
+        <v>-92.409595199999998</v>
+      </c>
+    </row>
+    <row r="813" spans="1:8" ht="65" thickBot="1">
+      <c r="A813" s="23">
+        <v>40114</v>
+      </c>
+      <c r="B813" s="24">
+        <v>0.74381944444444448</v>
+      </c>
+      <c r="C813" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D813" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E813" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F813" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G813" s="26">
+        <v>42.486379900000003</v>
+      </c>
+      <c r="H813" s="26">
+        <v>-92.440025000000006</v>
+      </c>
+    </row>
+    <row r="814" spans="1:8" ht="16">
+      <c r="A814" s="31">
+        <v>40115</v>
+      </c>
+      <c r="B814" s="32" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C814" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="D814" s="32" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E814" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F814" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="G814" s="32">
+        <v>42.512416000000002</v>
+      </c>
+      <c r="H814" s="32">
+        <v>-92.464008000000007</v>
+      </c>
+    </row>
+    <row r="815" spans="1:8" ht="16">
+      <c r="A815" s="31">
+        <v>40115</v>
+      </c>
+      <c r="B815" s="33">
+        <v>0.88402777777777775</v>
+      </c>
+      <c r="C815" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D815" s="32" t="s">
+        <v>776</v>
+      </c>
+      <c r="E815" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F815" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="G815" s="32">
+        <v>42.515520000000002</v>
+      </c>
+      <c r="H815" s="32">
+        <v>-92.459224000000006</v>
+      </c>
+    </row>
+    <row r="816" spans="1:8" ht="16">
+      <c r="A816" s="31">
+        <v>40116</v>
+      </c>
+      <c r="B816" s="33">
+        <v>0.46585648148148145</v>
+      </c>
+      <c r="C816" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D816" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="E816" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F816" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="G816" s="32">
+        <v>42.480448600000003</v>
+      </c>
+      <c r="H816" s="32">
+        <v>-92.444347899999997</v>
+      </c>
+    </row>
+    <row r="817" spans="1:8" ht="16">
+      <c r="A817" s="31">
+        <v>40116</v>
+      </c>
+      <c r="B817" s="33">
+        <v>0.98806712962962961</v>
+      </c>
+      <c r="C817" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D817" s="32" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E817" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F817" s="32" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G817" s="32">
+        <v>42.531700000000001</v>
+      </c>
+      <c r="H817" s="32">
+        <v>-92.460357999999999</v>
+      </c>
+    </row>
+    <row r="818" spans="1:8" ht="16">
+      <c r="A818" s="31">
+        <v>40116</v>
+      </c>
+      <c r="B818" s="33">
+        <v>0.70416666666666661</v>
+      </c>
+      <c r="C818" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D818" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="E818" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F818" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="G818" s="32">
+        <v>42.510885000000002</v>
+      </c>
+      <c r="H818" s="32">
+        <v>-92.461005</v>
+      </c>
+    </row>
+    <row r="819" spans="1:8" ht="16">
+      <c r="A819" s="31">
+        <v>40117</v>
+      </c>
+      <c r="B819" s="33">
+        <v>0.36063657407407407</v>
+      </c>
+      <c r="C819" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D819" s="32" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E819" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F819" s="32" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G819" s="32">
+        <v>42.467568</v>
+      </c>
+      <c r="H819" s="32">
+        <v>-92.4433899</v>
+      </c>
+    </row>
+    <row r="820" spans="1:8" ht="16">
+      <c r="A820" s="31">
+        <v>40117</v>
+      </c>
+      <c r="B820" s="33">
+        <v>0.457974537037037</v>
+      </c>
+      <c r="C820" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D820" s="32" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E820" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F820" s="32" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G820" s="32">
+        <v>42.520963999999999</v>
+      </c>
+      <c r="H820" s="32">
+        <v>-92.441091</v>
+      </c>
+    </row>
+    <row r="821" spans="1:8" ht="16">
+      <c r="A821" s="31">
+        <v>40117</v>
+      </c>
+      <c r="B821" s="33">
+        <v>0.71546296296296286</v>
+      </c>
+      <c r="C821" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D821" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="E821" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F821" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="G821" s="32">
+        <v>42.480448600000003</v>
+      </c>
+      <c r="H821" s="32">
+        <v>-92.444347899999997</v>
+      </c>
+    </row>
+    <row r="822" spans="1:8" ht="16">
+      <c r="A822" s="31">
+        <v>40117</v>
+      </c>
+      <c r="B822" s="33">
+        <v>0.77354166666666668</v>
+      </c>
+      <c r="C822" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D822" s="32" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E822" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F822" s="32" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G822" s="32">
+        <v>42.503027199999998</v>
+      </c>
+      <c r="H822" s="32">
+        <v>-92.407606400000006</v>
+      </c>
+    </row>
+    <row r="823" spans="1:8" ht="16">
+      <c r="A823" s="31">
+        <v>40117</v>
+      </c>
+      <c r="B823" s="33">
+        <v>0.55069444444444449</v>
+      </c>
+      <c r="C823" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D823" s="32" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E823" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F823" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="G823" s="32">
+        <v>42.51247</v>
+      </c>
+      <c r="H823" s="32">
+        <v>-92.459719000000007</v>
+      </c>
+    </row>
+    <row r="824" spans="1:8" ht="16">
+      <c r="A824" s="31">
+        <v>40118</v>
+      </c>
+      <c r="B824" s="33">
+        <v>0.39216435185185183</v>
+      </c>
+      <c r="C824" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D824" s="32" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E824" s="32" t="s">
+        <v>474</v>
+      </c>
+      <c r="F824" s="32" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G824" s="32">
+        <v>42.503056899999997</v>
+      </c>
+      <c r="H824" s="32">
+        <v>-92.407635499999998</v>
+      </c>
+    </row>
+    <row r="825" spans="1:8" ht="16">
+      <c r="A825" s="31">
+        <v>40118</v>
+      </c>
+      <c r="B825" s="33">
+        <v>0.40662037037037035</v>
+      </c>
+      <c r="C825" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D825" s="32" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E825" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F825" s="32" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G825" s="32">
+        <v>42.529308</v>
+      </c>
+      <c r="H825" s="32">
+        <v>-92.456783000000001</v>
+      </c>
+    </row>
+    <row r="826" spans="1:8" ht="16">
+      <c r="A826" s="31">
+        <v>40118</v>
+      </c>
+      <c r="B826" s="33">
+        <v>0.6697685185185186</v>
+      </c>
+      <c r="C826" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D826" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E826" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F826" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="G826" s="32">
+        <v>42.510937699999999</v>
+      </c>
+      <c r="H826" s="32">
+        <v>-92.429170299999996</v>
+      </c>
+    </row>
+    <row r="827" spans="1:8" ht="16">
+      <c r="A827" s="31">
+        <v>40119</v>
+      </c>
+      <c r="B827" s="33">
+        <v>0.10460648148148148</v>
+      </c>
+      <c r="C827" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D827" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="E827" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F827" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="G827" s="32">
+        <v>42.536487000000001</v>
+      </c>
+      <c r="H827" s="32">
+        <v>-92.4444819</v>
+      </c>
+    </row>
+    <row r="828" spans="1:8" ht="16">
+      <c r="A828" s="31">
+        <v>40119</v>
+      </c>
+      <c r="B828" s="33">
+        <v>0.22596064814814817</v>
+      </c>
+      <c r="C828" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D828" s="32" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E828" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F828" s="32" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G828" s="32">
+        <v>42.4695198</v>
+      </c>
+      <c r="H828" s="32">
+        <v>-92.4546457</v>
+      </c>
+    </row>
+    <row r="829" spans="1:8" ht="16">
+      <c r="A829" s="31">
+        <v>40119</v>
+      </c>
+      <c r="B829" s="33">
+        <v>0.28288194444444442</v>
+      </c>
+      <c r="C829" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D829" s="32" t="s">
+        <v>941</v>
+      </c>
+      <c r="E829" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F829" s="32" t="s">
+        <v>942</v>
+      </c>
+      <c r="G829" s="32">
+        <v>42.4695094</v>
+      </c>
+      <c r="H829" s="32">
+        <v>-92.449947600000002</v>
+      </c>
+    </row>
+    <row r="830" spans="1:8" ht="16">
+      <c r="A830" s="31">
+        <v>40119</v>
+      </c>
+      <c r="B830" s="33">
+        <v>0.95474537037037033</v>
+      </c>
+      <c r="C830" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D830" s="32" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E830" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F830" s="32" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G830" s="32">
+        <v>42.469509700000003</v>
+      </c>
+      <c r="H830" s="32">
+        <v>-92.449904399999994</v>
+      </c>
+    </row>
+    <row r="831" spans="1:8" ht="16">
+      <c r="A831" s="31">
+        <v>40120</v>
+      </c>
+      <c r="B831" s="33">
+        <v>0.45158564814814817</v>
+      </c>
+      <c r="C831" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D831" s="32" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E831" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F831" s="32" t="s">
+        <v>1049</v>
+      </c>
+      <c r="G831" s="32">
+        <v>42.469519699999999</v>
+      </c>
+      <c r="H831" s="32">
+        <v>-92.454618699999997</v>
+      </c>
+    </row>
+    <row r="832" spans="1:8" ht="16">
+      <c r="A832" s="31">
+        <v>40120</v>
+      </c>
+      <c r="B832" s="33">
+        <v>0.55611111111111111</v>
+      </c>
+      <c r="C832" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D832" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="E832" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F832" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="G832" s="32">
+        <v>42.502448399999999</v>
+      </c>
+      <c r="H832" s="32">
+        <v>-92.474942400000003</v>
+      </c>
+    </row>
+    <row r="833" spans="1:8" ht="16">
+      <c r="A833" s="31">
+        <v>40120</v>
+      </c>
+      <c r="B833" s="33">
+        <v>0.56715277777777773</v>
+      </c>
+      <c r="C833" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D833" s="32" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E833" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F833" s="32" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G833" s="32">
+        <v>42.522818000000001</v>
+      </c>
+      <c r="H833" s="32">
+        <v>-92.438895000000002</v>
+      </c>
+    </row>
+    <row r="834" spans="1:8" ht="16">
+      <c r="A834" s="31">
+        <v>40120</v>
+      </c>
+      <c r="B834" s="33">
+        <v>0.60798611111111112</v>
+      </c>
+      <c r="C834" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D834" s="32" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E834" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F834" s="32" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G834" s="32">
+        <v>42.509417599999999</v>
+      </c>
+      <c r="H834" s="32">
+        <v>-92.415057700000006</v>
+      </c>
+    </row>
+    <row r="835" spans="1:8" ht="16">
+      <c r="A835" s="31">
+        <v>40120</v>
+      </c>
+      <c r="B835" s="33">
+        <v>0.63912037037037039</v>
+      </c>
+      <c r="C835" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D835" s="32" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E835" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F835" s="32" t="s">
+        <v>1055</v>
+      </c>
+      <c r="G835" s="32">
+        <v>42.504835</v>
+      </c>
+      <c r="H835" s="32">
+        <v>-92.407375000000002</v>
+      </c>
+    </row>
+    <row r="836" spans="1:8" ht="16">
+      <c r="A836" s="31">
+        <v>40120</v>
+      </c>
+      <c r="B836" s="33">
+        <v>0.67569444444444438</v>
+      </c>
+      <c r="C836" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D836" s="32" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E836" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F836" s="32" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G836" s="32">
+        <v>42.519619900000002</v>
+      </c>
+      <c r="H836" s="32">
+        <v>-92.455543899999995</v>
+      </c>
+    </row>
+    <row r="837" spans="1:8" ht="16">
+      <c r="A837" s="31">
+        <v>40120</v>
+      </c>
+      <c r="B837" s="33">
+        <v>0.6856944444444445</v>
+      </c>
+      <c r="C837" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D837" s="32" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E837" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F837" s="32" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G837" s="32">
+        <v>42.5184104</v>
+      </c>
+      <c r="H837" s="32">
+        <v>-92.455811199999999</v>
+      </c>
+    </row>
+    <row r="838" spans="1:8" ht="16">
+      <c r="A838" s="31">
+        <v>40120</v>
+      </c>
+      <c r="B838" s="33">
+        <v>0.45902777777777781</v>
+      </c>
+      <c r="C838" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D838" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="E838" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F838" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="G838" s="32">
+        <v>42.515762000000002</v>
+      </c>
+      <c r="H838" s="32">
+        <v>-92.467191999999997</v>
+      </c>
+    </row>
+    <row r="839" spans="1:8" ht="16">
+      <c r="A839" s="31">
+        <v>40121</v>
+      </c>
+      <c r="B839" s="33">
+        <v>0.43792824074074077</v>
+      </c>
+      <c r="C839" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D839" s="32" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E839" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="F839" s="32" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G839" s="32">
+        <v>42.487946999999998</v>
+      </c>
+      <c r="H839" s="32">
+        <v>-92.448738000000006</v>
+      </c>
+    </row>
+    <row r="840" spans="1:8" ht="16">
+      <c r="A840" s="31">
+        <v>40121</v>
+      </c>
+      <c r="B840" s="33">
+        <v>0.60180555555555559</v>
+      </c>
+      <c r="C840" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D840" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E840" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F840" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="G840" s="32">
+        <v>42.510937699999999</v>
+      </c>
+      <c r="H840" s="32">
+        <v>-92.429170299999996</v>
+      </c>
+    </row>
+    <row r="841" spans="1:8" ht="16">
+      <c r="A841" s="31">
+        <v>40121</v>
+      </c>
+      <c r="B841" s="33">
+        <v>0.62396990740740743</v>
+      </c>
+      <c r="C841" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="D841" s="32" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E841" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F841" s="32" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G841" s="32">
+        <v>42.507429000000002</v>
+      </c>
+      <c r="H841" s="32">
+        <v>-92.410362000000006</v>
+      </c>
+    </row>
+    <row r="842" spans="1:8" ht="16">
+      <c r="A842" s="31">
+        <v>40121</v>
+      </c>
+      <c r="B842" s="33">
+        <v>0.64978009259259262</v>
+      </c>
+      <c r="C842" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D842" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="E842" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F842" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="G842" s="32">
+        <v>42.537539000000002</v>
+      </c>
+      <c r="H842" s="32">
+        <v>-92.462828000000002</v>
+      </c>
+    </row>
+    <row r="843" spans="1:8" ht="16">
+      <c r="A843" s="31">
+        <v>40121</v>
+      </c>
+      <c r="B843" s="33">
+        <v>0.68552083333333336</v>
+      </c>
+      <c r="C843" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D843" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="E843" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F843" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="G843" s="32">
+        <v>42.480448600000003</v>
+      </c>
+      <c r="H843" s="32">
+        <v>-92.444347899999997</v>
+      </c>
+    </row>
+    <row r="844" spans="1:8" ht="16">
+      <c r="A844" s="31">
+        <v>40121</v>
+      </c>
+      <c r="B844" s="33">
+        <v>0.99482638888888886</v>
+      </c>
+      <c r="C844" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D844" s="32" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E844" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F844" s="32" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G844" s="32">
+        <v>42.503056899999997</v>
+      </c>
+      <c r="H844" s="32">
+        <v>-92.407635499999998</v>
+      </c>
+    </row>
+    <row r="845" spans="1:8" ht="16">
+      <c r="A845" s="31">
+        <v>40122</v>
+      </c>
+      <c r="B845" s="33">
+        <v>0.40687500000000004</v>
+      </c>
+      <c r="C845" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D845" s="32" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E845" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F845" s="32" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G845" s="32">
+        <v>42.538097999999998</v>
+      </c>
+      <c r="H845" s="32">
+        <v>-92.451657999999995</v>
+      </c>
+    </row>
+    <row r="846" spans="1:8" ht="16">
+      <c r="A846" s="31">
+        <v>40122</v>
+      </c>
+      <c r="B846" s="33">
+        <v>0.40863425925925928</v>
+      </c>
+      <c r="C846" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D846" s="32" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E846" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F846" s="32" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G846" s="32">
+        <v>42.569530899999997</v>
+      </c>
+      <c r="H846" s="32">
+        <v>-92.4363879</v>
+      </c>
+    </row>
+    <row r="847" spans="1:8" ht="16">
+      <c r="A847" s="31">
+        <v>40122</v>
+      </c>
+      <c r="B847" s="33">
+        <v>0.63258101851851845</v>
+      </c>
+      <c r="C847" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D847" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E847" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F847" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="G847" s="32">
+        <v>42.510937699999999</v>
+      </c>
+      <c r="H847" s="32">
+        <v>-92.429170299999996</v>
+      </c>
+    </row>
+    <row r="848" spans="1:8" ht="16">
+      <c r="A848" s="31">
+        <v>40122</v>
+      </c>
+      <c r="B848" s="33">
+        <v>0.74518518518518517</v>
+      </c>
+      <c r="C848" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D848" s="32" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E848" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F848" s="32" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G848" s="32">
+        <v>42.469537199999998</v>
+      </c>
+      <c r="H848" s="32">
+        <v>-92.4498593</v>
+      </c>
+    </row>
+    <row r="849" spans="1:8" ht="16">
+      <c r="A849" s="31">
+        <v>40122</v>
+      </c>
+      <c r="B849" s="33">
+        <v>0.60625000000000007</v>
+      </c>
+      <c r="C849" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D849" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="E849" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F849" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="G849" s="32">
+        <v>42.508200000000002</v>
+      </c>
+      <c r="H849" s="32">
+        <v>-92.450855000000004</v>
+      </c>
+    </row>
+    <row r="850" spans="1:8" ht="16">
+      <c r="A850" s="31">
+        <v>40123</v>
+      </c>
+      <c r="B850" s="33">
+        <v>0.27938657407407408</v>
+      </c>
+      <c r="C850" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D850" s="32" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E850" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F850" s="32" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G850" s="32">
+        <v>42.522418999999999</v>
+      </c>
+      <c r="H850" s="32">
+        <v>-92.4627129</v>
       </c>
     </row>
   </sheetData>
